--- a/Salud/Fecha para Semanas Urgencias.xlsx
+++ b/Salud/Fecha para Semanas Urgencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Salud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A73386-6DDF-4B7E-BC5B-CCB56464C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F7762-EC12-4557-9AD8-B85E5774ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C558FB47-BB56-40CA-9D4D-22880BED04DB}"/>
   </bookViews>
@@ -400,7 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E66827-EB9E-43B4-B700-70155C26D84D}">
   <dimension ref="A1:D937"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
+      <selection activeCell="D904" sqref="D904"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -448,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">+A3&amp;B3</f>
+        <f t="shared" ref="C3:C55" si="0">+A3&amp;B3</f>
         <v>20082</v>
       </c>
       <c r="D3" s="1">
@@ -458,7 +460,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="1">+IF(B3=53,A3+1,A3)</f>
+        <f t="shared" ref="A4:A55" si="1">+IF(B3=53,A3+1,A3)</f>
         <v>2008</v>
       </c>
       <c r="B4">
@@ -1337,8 +1339,7 @@
         <v>20091</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="2"/>
-        <v>39819</v>
+        <v>39814</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,7 +1357,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="2"/>
-        <v>39826</v>
+        <v>39821</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1375,7 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="2"/>
-        <v>39833</v>
+        <v>39828</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,7 +1393,7 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="2"/>
-        <v>39840</v>
+        <v>39835</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,7 +1411,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="2"/>
-        <v>39847</v>
+        <v>39842</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1429,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="2"/>
-        <v>39854</v>
+        <v>39849</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,7 +1447,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="2"/>
-        <v>39861</v>
+        <v>39856</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,7 +1465,7 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="2"/>
-        <v>39868</v>
+        <v>39863</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,7 +1483,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="2"/>
-        <v>39875</v>
+        <v>39870</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1500,7 +1501,7 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="2"/>
-        <v>39882</v>
+        <v>39877</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,7 +1519,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="2"/>
-        <v>39889</v>
+        <v>39884</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,7 +1537,7 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="2"/>
-        <v>39896</v>
+        <v>39891</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1554,7 +1555,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="2"/>
-        <v>39903</v>
+        <v>39898</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1572,7 +1573,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:D131" si="6">+D67+7</f>
-        <v>39910</v>
+        <v>39905</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1590,7 +1591,7 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="6"/>
-        <v>39917</v>
+        <v>39912</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,7 +1609,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="6"/>
-        <v>39924</v>
+        <v>39919</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,7 +1627,7 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="6"/>
-        <v>39931</v>
+        <v>39926</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,7 +1645,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="6"/>
-        <v>39938</v>
+        <v>39933</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1663,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="6"/>
-        <v>39945</v>
+        <v>39940</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +1681,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="6"/>
-        <v>39952</v>
+        <v>39947</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,7 +1699,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="6"/>
-        <v>39959</v>
+        <v>39954</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,7 +1717,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="6"/>
-        <v>39966</v>
+        <v>39961</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,7 +1735,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="6"/>
-        <v>39973</v>
+        <v>39968</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,7 +1753,7 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="6"/>
-        <v>39980</v>
+        <v>39975</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1771,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="6"/>
-        <v>39987</v>
+        <v>39982</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,7 +1789,7 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="6"/>
-        <v>39994</v>
+        <v>39989</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1806,7 +1807,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="6"/>
-        <v>40001</v>
+        <v>39996</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,7 +1825,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="6"/>
-        <v>40008</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,7 +1843,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="6"/>
-        <v>40015</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1860,7 +1861,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="6"/>
-        <v>40022</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,7 +1879,7 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="6"/>
-        <v>40029</v>
+        <v>40024</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,7 +1897,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="6"/>
-        <v>40036</v>
+        <v>40031</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,7 +1915,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="6"/>
-        <v>40043</v>
+        <v>40038</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,7 +1933,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="6"/>
-        <v>40050</v>
+        <v>40045</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1950,7 +1951,7 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="6"/>
-        <v>40057</v>
+        <v>40052</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,7 +1969,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="6"/>
-        <v>40064</v>
+        <v>40059</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1986,7 +1987,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="6"/>
-        <v>40071</v>
+        <v>40066</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,7 +2005,7 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" si="6"/>
-        <v>40078</v>
+        <v>40073</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,7 +2023,7 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="6"/>
-        <v>40085</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,7 +2041,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="6"/>
-        <v>40092</v>
+        <v>40087</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2058,7 +2059,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="6"/>
-        <v>40099</v>
+        <v>40094</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2076,7 +2077,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="6"/>
-        <v>40106</v>
+        <v>40101</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,7 +2095,7 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="6"/>
-        <v>40113</v>
+        <v>40108</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,7 +2113,7 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="6"/>
-        <v>40120</v>
+        <v>40115</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,7 +2131,7 @@
       </c>
       <c r="D99" s="1">
         <f t="shared" si="6"/>
-        <v>40127</v>
+        <v>40122</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2148,7 +2149,7 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="6"/>
-        <v>40134</v>
+        <v>40129</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,7 +2167,7 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="6"/>
-        <v>40141</v>
+        <v>40136</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,7 +2185,7 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="6"/>
-        <v>40148</v>
+        <v>40143</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2202,7 +2203,7 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="6"/>
-        <v>40155</v>
+        <v>40150</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2220,7 +2221,7 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="6"/>
-        <v>40162</v>
+        <v>40157</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,7 +2239,7 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="6"/>
-        <v>40169</v>
+        <v>40164</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,7 +2257,7 @@
       </c>
       <c r="D106" s="1">
         <f t="shared" si="6"/>
-        <v>40176</v>
+        <v>40171</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2274,7 +2275,7 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="6"/>
-        <v>40183</v>
+        <v>40178</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2291,8 +2292,7 @@
         <v>20101</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="6"/>
-        <v>40190</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="6"/>
-        <v>40197</v>
+        <v>40186</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="6"/>
-        <v>40204</v>
+        <v>40193</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="6"/>
-        <v>40211</v>
+        <v>40200</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="6"/>
-        <v>40218</v>
+        <v>40207</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" si="6"/>
-        <v>40225</v>
+        <v>40214</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="6"/>
-        <v>40232</v>
+        <v>40221</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="6"/>
-        <v>40239</v>
+        <v>40228</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="6"/>
-        <v>40246</v>
+        <v>40235</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="6"/>
-        <v>40253</v>
+        <v>40242</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="6"/>
-        <v>40260</v>
+        <v>40249</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="6"/>
-        <v>40267</v>
+        <v>40256</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="D120" s="1">
         <f t="shared" si="6"/>
-        <v>40274</v>
+        <v>40263</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="6"/>
-        <v>40281</v>
+        <v>40270</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="6"/>
-        <v>40288</v>
+        <v>40277</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="6"/>
-        <v>40295</v>
+        <v>40284</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="6"/>
-        <v>40302</v>
+        <v>40291</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="6"/>
-        <v>40309</v>
+        <v>40298</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="6"/>
-        <v>40316</v>
+        <v>40305</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D127" s="1">
         <f t="shared" si="6"/>
-        <v>40323</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D128" s="1">
         <f t="shared" si="6"/>
-        <v>40330</v>
+        <v>40319</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D129" s="1">
         <f t="shared" si="6"/>
-        <v>40337</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D130" s="1">
         <f t="shared" si="6"/>
-        <v>40344</v>
+        <v>40333</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D131" s="1">
         <f t="shared" si="6"/>
-        <v>40351</v>
+        <v>40340</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="D132" s="1">
         <f t="shared" ref="D132:D195" si="10">+D131+7</f>
-        <v>40358</v>
+        <v>40347</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D133" s="1">
         <f t="shared" si="10"/>
-        <v>40365</v>
+        <v>40354</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="D134" s="1">
         <f t="shared" si="10"/>
-        <v>40372</v>
+        <v>40361</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="D135" s="1">
         <f t="shared" si="10"/>
-        <v>40379</v>
+        <v>40368</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D136" s="1">
         <f t="shared" si="10"/>
-        <v>40386</v>
+        <v>40375</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="D137" s="1">
         <f t="shared" si="10"/>
-        <v>40393</v>
+        <v>40382</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="D138" s="1">
         <f t="shared" si="10"/>
-        <v>40400</v>
+        <v>40389</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D139" s="1">
         <f t="shared" si="10"/>
-        <v>40407</v>
+        <v>40396</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="D140" s="1">
         <f t="shared" si="10"/>
-        <v>40414</v>
+        <v>40403</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="D141" s="1">
         <f t="shared" si="10"/>
-        <v>40421</v>
+        <v>40410</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D142" s="1">
         <f t="shared" si="10"/>
-        <v>40428</v>
+        <v>40417</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="D143" s="1">
         <f t="shared" si="10"/>
-        <v>40435</v>
+        <v>40424</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="D144" s="1">
         <f t="shared" si="10"/>
-        <v>40442</v>
+        <v>40431</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="D145" s="1">
         <f t="shared" si="10"/>
-        <v>40449</v>
+        <v>40438</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="D146" s="1">
         <f t="shared" si="10"/>
-        <v>40456</v>
+        <v>40445</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D147" s="1">
         <f t="shared" si="10"/>
-        <v>40463</v>
+        <v>40452</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D148" s="1">
         <f t="shared" si="10"/>
-        <v>40470</v>
+        <v>40459</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D149" s="1">
         <f t="shared" si="10"/>
-        <v>40477</v>
+        <v>40466</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D150" s="1">
         <f t="shared" si="10"/>
-        <v>40484</v>
+        <v>40473</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D151" s="1">
         <f t="shared" si="10"/>
-        <v>40491</v>
+        <v>40480</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="D152" s="1">
         <f t="shared" si="10"/>
-        <v>40498</v>
+        <v>40487</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D153" s="1">
         <f t="shared" si="10"/>
-        <v>40505</v>
+        <v>40494</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="D154" s="1">
         <f t="shared" si="10"/>
-        <v>40512</v>
+        <v>40501</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="D155" s="1">
         <f t="shared" si="10"/>
-        <v>40519</v>
+        <v>40508</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D156" s="1">
         <f t="shared" si="10"/>
-        <v>40526</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D157" s="1">
         <f t="shared" si="10"/>
-        <v>40533</v>
+        <v>40522</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D158" s="1">
         <f t="shared" si="10"/>
-        <v>40540</v>
+        <v>40529</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D159" s="1">
         <f t="shared" si="10"/>
-        <v>40547</v>
+        <v>40536</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D160" s="1">
         <f t="shared" si="10"/>
-        <v>40554</v>
+        <v>40543</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3245,8 +3245,7 @@
         <v>20111</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="10"/>
-        <v>40561</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3264,7 +3263,7 @@
       </c>
       <c r="D162" s="1">
         <f t="shared" si="10"/>
-        <v>40568</v>
+        <v>40551</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3282,7 +3281,7 @@
       </c>
       <c r="D163" s="1">
         <f t="shared" si="10"/>
-        <v>40575</v>
+        <v>40558</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3300,7 +3299,7 @@
       </c>
       <c r="D164" s="1">
         <f t="shared" si="10"/>
-        <v>40582</v>
+        <v>40565</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3318,7 +3317,7 @@
       </c>
       <c r="D165" s="1">
         <f t="shared" si="10"/>
-        <v>40589</v>
+        <v>40572</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3336,7 +3335,7 @@
       </c>
       <c r="D166" s="1">
         <f t="shared" si="10"/>
-        <v>40596</v>
+        <v>40579</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3354,7 +3353,7 @@
       </c>
       <c r="D167" s="1">
         <f t="shared" si="10"/>
-        <v>40603</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3372,7 +3371,7 @@
       </c>
       <c r="D168" s="1">
         <f t="shared" si="10"/>
-        <v>40610</v>
+        <v>40593</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3390,7 +3389,7 @@
       </c>
       <c r="D169" s="1">
         <f t="shared" si="10"/>
-        <v>40617</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,7 +3407,7 @@
       </c>
       <c r="D170" s="1">
         <f t="shared" si="10"/>
-        <v>40624</v>
+        <v>40607</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3426,7 +3425,7 @@
       </c>
       <c r="D171" s="1">
         <f t="shared" si="10"/>
-        <v>40631</v>
+        <v>40614</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3444,7 +3443,7 @@
       </c>
       <c r="D172" s="1">
         <f t="shared" si="10"/>
-        <v>40638</v>
+        <v>40621</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3462,7 +3461,7 @@
       </c>
       <c r="D173" s="1">
         <f t="shared" si="10"/>
-        <v>40645</v>
+        <v>40628</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3480,7 +3479,7 @@
       </c>
       <c r="D174" s="1">
         <f t="shared" si="10"/>
-        <v>40652</v>
+        <v>40635</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3498,7 +3497,7 @@
       </c>
       <c r="D175" s="1">
         <f t="shared" si="10"/>
-        <v>40659</v>
+        <v>40642</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3516,7 +3515,7 @@
       </c>
       <c r="D176" s="1">
         <f t="shared" si="10"/>
-        <v>40666</v>
+        <v>40649</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3534,7 +3533,7 @@
       </c>
       <c r="D177" s="1">
         <f t="shared" si="10"/>
-        <v>40673</v>
+        <v>40656</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,7 +3551,7 @@
       </c>
       <c r="D178" s="1">
         <f t="shared" si="10"/>
-        <v>40680</v>
+        <v>40663</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3570,7 +3569,7 @@
       </c>
       <c r="D179" s="1">
         <f t="shared" si="10"/>
-        <v>40687</v>
+        <v>40670</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3588,7 +3587,7 @@
       </c>
       <c r="D180" s="1">
         <f t="shared" si="10"/>
-        <v>40694</v>
+        <v>40677</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3606,7 +3605,7 @@
       </c>
       <c r="D181" s="1">
         <f t="shared" si="10"/>
-        <v>40701</v>
+        <v>40684</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3624,7 +3623,7 @@
       </c>
       <c r="D182" s="1">
         <f t="shared" si="10"/>
-        <v>40708</v>
+        <v>40691</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3642,7 +3641,7 @@
       </c>
       <c r="D183" s="1">
         <f t="shared" si="10"/>
-        <v>40715</v>
+        <v>40698</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,7 +3659,7 @@
       </c>
       <c r="D184" s="1">
         <f t="shared" si="10"/>
-        <v>40722</v>
+        <v>40705</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3678,7 +3677,7 @@
       </c>
       <c r="D185" s="1">
         <f t="shared" si="10"/>
-        <v>40729</v>
+        <v>40712</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3696,7 +3695,7 @@
       </c>
       <c r="D186" s="1">
         <f t="shared" si="10"/>
-        <v>40736</v>
+        <v>40719</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3714,7 +3713,7 @@
       </c>
       <c r="D187" s="1">
         <f t="shared" si="10"/>
-        <v>40743</v>
+        <v>40726</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3732,7 +3731,7 @@
       </c>
       <c r="D188" s="1">
         <f t="shared" si="10"/>
-        <v>40750</v>
+        <v>40733</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3750,7 +3749,7 @@
       </c>
       <c r="D189" s="1">
         <f t="shared" si="10"/>
-        <v>40757</v>
+        <v>40740</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3768,7 +3767,7 @@
       </c>
       <c r="D190" s="1">
         <f t="shared" si="10"/>
-        <v>40764</v>
+        <v>40747</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3786,7 +3785,7 @@
       </c>
       <c r="D191" s="1">
         <f t="shared" si="10"/>
-        <v>40771</v>
+        <v>40754</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3804,7 +3803,7 @@
       </c>
       <c r="D192" s="1">
         <f t="shared" si="10"/>
-        <v>40778</v>
+        <v>40761</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3822,7 +3821,7 @@
       </c>
       <c r="D193" s="1">
         <f t="shared" si="10"/>
-        <v>40785</v>
+        <v>40768</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3840,7 +3839,7 @@
       </c>
       <c r="D194" s="1">
         <f t="shared" si="10"/>
-        <v>40792</v>
+        <v>40775</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3858,7 +3857,7 @@
       </c>
       <c r="D195" s="1">
         <f t="shared" si="10"/>
-        <v>40799</v>
+        <v>40782</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3876,7 +3875,7 @@
       </c>
       <c r="D196" s="1">
         <f t="shared" ref="D196:D259" si="14">+D195+7</f>
-        <v>40806</v>
+        <v>40789</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3894,7 +3893,7 @@
       </c>
       <c r="D197" s="1">
         <f t="shared" si="14"/>
-        <v>40813</v>
+        <v>40796</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3912,7 +3911,7 @@
       </c>
       <c r="D198" s="1">
         <f t="shared" si="14"/>
-        <v>40820</v>
+        <v>40803</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3930,7 +3929,7 @@
       </c>
       <c r="D199" s="1">
         <f t="shared" si="14"/>
-        <v>40827</v>
+        <v>40810</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3948,7 +3947,7 @@
       </c>
       <c r="D200" s="1">
         <f t="shared" si="14"/>
-        <v>40834</v>
+        <v>40817</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3966,7 +3965,7 @@
       </c>
       <c r="D201" s="1">
         <f t="shared" si="14"/>
-        <v>40841</v>
+        <v>40824</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3984,7 +3983,7 @@
       </c>
       <c r="D202" s="1">
         <f t="shared" si="14"/>
-        <v>40848</v>
+        <v>40831</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4002,7 +4001,7 @@
       </c>
       <c r="D203" s="1">
         <f t="shared" si="14"/>
-        <v>40855</v>
+        <v>40838</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4020,7 +4019,7 @@
       </c>
       <c r="D204" s="1">
         <f t="shared" si="14"/>
-        <v>40862</v>
+        <v>40845</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,7 +4037,7 @@
       </c>
       <c r="D205" s="1">
         <f t="shared" si="14"/>
-        <v>40869</v>
+        <v>40852</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4056,7 +4055,7 @@
       </c>
       <c r="D206" s="1">
         <f t="shared" si="14"/>
-        <v>40876</v>
+        <v>40859</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4074,7 +4073,7 @@
       </c>
       <c r="D207" s="1">
         <f t="shared" si="14"/>
-        <v>40883</v>
+        <v>40866</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4092,7 +4091,7 @@
       </c>
       <c r="D208" s="1">
         <f t="shared" si="14"/>
-        <v>40890</v>
+        <v>40873</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4110,7 +4109,7 @@
       </c>
       <c r="D209" s="1">
         <f t="shared" si="14"/>
-        <v>40897</v>
+        <v>40880</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4128,7 +4127,7 @@
       </c>
       <c r="D210" s="1">
         <f t="shared" si="14"/>
-        <v>40904</v>
+        <v>40887</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4146,7 +4145,7 @@
       </c>
       <c r="D211" s="1">
         <f t="shared" si="14"/>
-        <v>40911</v>
+        <v>40894</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,7 +4163,7 @@
       </c>
       <c r="D212" s="1">
         <f t="shared" si="14"/>
-        <v>40918</v>
+        <v>40901</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4182,7 +4181,7 @@
       </c>
       <c r="D213" s="1">
         <f t="shared" si="14"/>
-        <v>40925</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4199,8 +4198,7 @@
         <v>20121</v>
       </c>
       <c r="D214" s="1">
-        <f t="shared" si="14"/>
-        <v>40932</v>
+        <v>40909</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4218,7 +4216,7 @@
       </c>
       <c r="D215" s="1">
         <f t="shared" si="14"/>
-        <v>40939</v>
+        <v>40916</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4236,7 +4234,7 @@
       </c>
       <c r="D216" s="1">
         <f t="shared" si="14"/>
-        <v>40946</v>
+        <v>40923</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4254,7 +4252,7 @@
       </c>
       <c r="D217" s="1">
         <f t="shared" si="14"/>
-        <v>40953</v>
+        <v>40930</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4272,7 +4270,7 @@
       </c>
       <c r="D218" s="1">
         <f t="shared" si="14"/>
-        <v>40960</v>
+        <v>40937</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,7 +4288,7 @@
       </c>
       <c r="D219" s="1">
         <f t="shared" si="14"/>
-        <v>40967</v>
+        <v>40944</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4308,7 +4306,7 @@
       </c>
       <c r="D220" s="1">
         <f t="shared" si="14"/>
-        <v>40974</v>
+        <v>40951</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4326,7 +4324,7 @@
       </c>
       <c r="D221" s="1">
         <f t="shared" si="14"/>
-        <v>40981</v>
+        <v>40958</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4344,7 +4342,7 @@
       </c>
       <c r="D222" s="1">
         <f t="shared" si="14"/>
-        <v>40988</v>
+        <v>40965</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4362,7 +4360,7 @@
       </c>
       <c r="D223" s="1">
         <f t="shared" si="14"/>
-        <v>40995</v>
+        <v>40972</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4380,7 +4378,7 @@
       </c>
       <c r="D224" s="1">
         <f t="shared" si="14"/>
-        <v>41002</v>
+        <v>40979</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4398,7 +4396,7 @@
       </c>
       <c r="D225" s="1">
         <f t="shared" si="14"/>
-        <v>41009</v>
+        <v>40986</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,7 +4414,7 @@
       </c>
       <c r="D226" s="1">
         <f t="shared" si="14"/>
-        <v>41016</v>
+        <v>40993</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4434,7 +4432,7 @@
       </c>
       <c r="D227" s="1">
         <f t="shared" si="14"/>
-        <v>41023</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4452,7 +4450,7 @@
       </c>
       <c r="D228" s="1">
         <f t="shared" si="14"/>
-        <v>41030</v>
+        <v>41007</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4470,7 +4468,7 @@
       </c>
       <c r="D229" s="1">
         <f t="shared" si="14"/>
-        <v>41037</v>
+        <v>41014</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4488,7 +4486,7 @@
       </c>
       <c r="D230" s="1">
         <f t="shared" si="14"/>
-        <v>41044</v>
+        <v>41021</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4506,7 +4504,7 @@
       </c>
       <c r="D231" s="1">
         <f t="shared" si="14"/>
-        <v>41051</v>
+        <v>41028</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4524,7 +4522,7 @@
       </c>
       <c r="D232" s="1">
         <f t="shared" si="14"/>
-        <v>41058</v>
+        <v>41035</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,7 +4540,7 @@
       </c>
       <c r="D233" s="1">
         <f t="shared" si="14"/>
-        <v>41065</v>
+        <v>41042</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4560,7 +4558,7 @@
       </c>
       <c r="D234" s="1">
         <f t="shared" si="14"/>
-        <v>41072</v>
+        <v>41049</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4578,7 +4576,7 @@
       </c>
       <c r="D235" s="1">
         <f t="shared" si="14"/>
-        <v>41079</v>
+        <v>41056</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4596,7 +4594,7 @@
       </c>
       <c r="D236" s="1">
         <f t="shared" si="14"/>
-        <v>41086</v>
+        <v>41063</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4614,7 +4612,7 @@
       </c>
       <c r="D237" s="1">
         <f t="shared" si="14"/>
-        <v>41093</v>
+        <v>41070</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4632,7 +4630,7 @@
       </c>
       <c r="D238" s="1">
         <f t="shared" si="14"/>
-        <v>41100</v>
+        <v>41077</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4650,7 +4648,7 @@
       </c>
       <c r="D239" s="1">
         <f t="shared" si="14"/>
-        <v>41107</v>
+        <v>41084</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,7 +4666,7 @@
       </c>
       <c r="D240" s="1">
         <f t="shared" si="14"/>
-        <v>41114</v>
+        <v>41091</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4686,7 +4684,7 @@
       </c>
       <c r="D241" s="1">
         <f t="shared" si="14"/>
-        <v>41121</v>
+        <v>41098</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4704,7 +4702,7 @@
       </c>
       <c r="D242" s="1">
         <f t="shared" si="14"/>
-        <v>41128</v>
+        <v>41105</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4722,7 +4720,7 @@
       </c>
       <c r="D243" s="1">
         <f t="shared" si="14"/>
-        <v>41135</v>
+        <v>41112</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4740,7 +4738,7 @@
       </c>
       <c r="D244" s="1">
         <f t="shared" si="14"/>
-        <v>41142</v>
+        <v>41119</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4758,7 +4756,7 @@
       </c>
       <c r="D245" s="1">
         <f t="shared" si="14"/>
-        <v>41149</v>
+        <v>41126</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4776,7 +4774,7 @@
       </c>
       <c r="D246" s="1">
         <f t="shared" si="14"/>
-        <v>41156</v>
+        <v>41133</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,7 +4792,7 @@
       </c>
       <c r="D247" s="1">
         <f t="shared" si="14"/>
-        <v>41163</v>
+        <v>41140</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4812,7 +4810,7 @@
       </c>
       <c r="D248" s="1">
         <f t="shared" si="14"/>
-        <v>41170</v>
+        <v>41147</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4830,7 +4828,7 @@
       </c>
       <c r="D249" s="1">
         <f t="shared" si="14"/>
-        <v>41177</v>
+        <v>41154</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4848,7 +4846,7 @@
       </c>
       <c r="D250" s="1">
         <f t="shared" si="14"/>
-        <v>41184</v>
+        <v>41161</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4866,7 +4864,7 @@
       </c>
       <c r="D251" s="1">
         <f t="shared" si="14"/>
-        <v>41191</v>
+        <v>41168</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4884,7 +4882,7 @@
       </c>
       <c r="D252" s="1">
         <f t="shared" si="14"/>
-        <v>41198</v>
+        <v>41175</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4902,7 +4900,7 @@
       </c>
       <c r="D253" s="1">
         <f t="shared" si="14"/>
-        <v>41205</v>
+        <v>41182</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4920,7 +4918,7 @@
       </c>
       <c r="D254" s="1">
         <f t="shared" si="14"/>
-        <v>41212</v>
+        <v>41189</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4938,7 +4936,7 @@
       </c>
       <c r="D255" s="1">
         <f t="shared" si="14"/>
-        <v>41219</v>
+        <v>41196</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4956,7 +4954,7 @@
       </c>
       <c r="D256" s="1">
         <f t="shared" si="14"/>
-        <v>41226</v>
+        <v>41203</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4974,7 +4972,7 @@
       </c>
       <c r="D257" s="1">
         <f t="shared" si="14"/>
-        <v>41233</v>
+        <v>41210</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,7 +4990,7 @@
       </c>
       <c r="D258" s="1">
         <f t="shared" si="14"/>
-        <v>41240</v>
+        <v>41217</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,7 +5008,7 @@
       </c>
       <c r="D259" s="1">
         <f t="shared" si="14"/>
-        <v>41247</v>
+        <v>41224</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5028,7 +5026,7 @@
       </c>
       <c r="D260" s="1">
         <f t="shared" ref="D260:D323" si="18">+D259+7</f>
-        <v>41254</v>
+        <v>41231</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,7 +5044,7 @@
       </c>
       <c r="D261" s="1">
         <f t="shared" si="18"/>
-        <v>41261</v>
+        <v>41238</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5064,7 +5062,7 @@
       </c>
       <c r="D262" s="1">
         <f t="shared" si="18"/>
-        <v>41268</v>
+        <v>41245</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5082,7 +5080,7 @@
       </c>
       <c r="D263" s="1">
         <f t="shared" si="18"/>
-        <v>41275</v>
+        <v>41252</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5100,7 +5098,7 @@
       </c>
       <c r="D264" s="1">
         <f t="shared" si="18"/>
-        <v>41282</v>
+        <v>41259</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5118,7 +5116,7 @@
       </c>
       <c r="D265" s="1">
         <f t="shared" si="18"/>
-        <v>41289</v>
+        <v>41266</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,7 +5134,7 @@
       </c>
       <c r="D266" s="1">
         <f t="shared" si="18"/>
-        <v>41296</v>
+        <v>41273</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5153,8 +5151,7 @@
         <v>20131</v>
       </c>
       <c r="D267" s="1">
-        <f t="shared" si="18"/>
-        <v>41303</v>
+        <v>41275</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,7 +5169,7 @@
       </c>
       <c r="D268" s="1">
         <f t="shared" si="18"/>
-        <v>41310</v>
+        <v>41282</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5190,7 +5187,7 @@
       </c>
       <c r="D269" s="1">
         <f t="shared" si="18"/>
-        <v>41317</v>
+        <v>41289</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5208,7 +5205,7 @@
       </c>
       <c r="D270" s="1">
         <f t="shared" si="18"/>
-        <v>41324</v>
+        <v>41296</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5226,7 +5223,7 @@
       </c>
       <c r="D271" s="1">
         <f t="shared" si="18"/>
-        <v>41331</v>
+        <v>41303</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5244,7 +5241,7 @@
       </c>
       <c r="D272" s="1">
         <f t="shared" si="18"/>
-        <v>41338</v>
+        <v>41310</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5262,7 +5259,7 @@
       </c>
       <c r="D273" s="1">
         <f t="shared" si="18"/>
-        <v>41345</v>
+        <v>41317</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5280,7 +5277,7 @@
       </c>
       <c r="D274" s="1">
         <f t="shared" si="18"/>
-        <v>41352</v>
+        <v>41324</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,7 +5295,7 @@
       </c>
       <c r="D275" s="1">
         <f t="shared" si="18"/>
-        <v>41359</v>
+        <v>41331</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5316,7 +5313,7 @@
       </c>
       <c r="D276" s="1">
         <f t="shared" si="18"/>
-        <v>41366</v>
+        <v>41338</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5334,7 +5331,7 @@
       </c>
       <c r="D277" s="1">
         <f t="shared" si="18"/>
-        <v>41373</v>
+        <v>41345</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5352,7 +5349,7 @@
       </c>
       <c r="D278" s="1">
         <f t="shared" si="18"/>
-        <v>41380</v>
+        <v>41352</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5370,7 +5367,7 @@
       </c>
       <c r="D279" s="1">
         <f t="shared" si="18"/>
-        <v>41387</v>
+        <v>41359</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5388,7 +5385,7 @@
       </c>
       <c r="D280" s="1">
         <f t="shared" si="18"/>
-        <v>41394</v>
+        <v>41366</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5406,7 +5403,7 @@
       </c>
       <c r="D281" s="1">
         <f t="shared" si="18"/>
-        <v>41401</v>
+        <v>41373</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,7 +5421,7 @@
       </c>
       <c r="D282" s="1">
         <f t="shared" si="18"/>
-        <v>41408</v>
+        <v>41380</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5442,7 +5439,7 @@
       </c>
       <c r="D283" s="1">
         <f t="shared" si="18"/>
-        <v>41415</v>
+        <v>41387</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5460,7 +5457,7 @@
       </c>
       <c r="D284" s="1">
         <f t="shared" si="18"/>
-        <v>41422</v>
+        <v>41394</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5478,7 +5475,7 @@
       </c>
       <c r="D285" s="1">
         <f t="shared" si="18"/>
-        <v>41429</v>
+        <v>41401</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5496,7 +5493,7 @@
       </c>
       <c r="D286" s="1">
         <f t="shared" si="18"/>
-        <v>41436</v>
+        <v>41408</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5514,7 +5511,7 @@
       </c>
       <c r="D287" s="1">
         <f t="shared" si="18"/>
-        <v>41443</v>
+        <v>41415</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5532,7 +5529,7 @@
       </c>
       <c r="D288" s="1">
         <f t="shared" si="18"/>
-        <v>41450</v>
+        <v>41422</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5550,7 +5547,7 @@
       </c>
       <c r="D289" s="1">
         <f t="shared" si="18"/>
-        <v>41457</v>
+        <v>41429</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,7 +5565,7 @@
       </c>
       <c r="D290" s="1">
         <f t="shared" si="18"/>
-        <v>41464</v>
+        <v>41436</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5586,7 +5583,7 @@
       </c>
       <c r="D291" s="1">
         <f t="shared" si="18"/>
-        <v>41471</v>
+        <v>41443</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5604,7 +5601,7 @@
       </c>
       <c r="D292" s="1">
         <f t="shared" si="18"/>
-        <v>41478</v>
+        <v>41450</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5622,7 +5619,7 @@
       </c>
       <c r="D293" s="1">
         <f t="shared" si="18"/>
-        <v>41485</v>
+        <v>41457</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,7 +5637,7 @@
       </c>
       <c r="D294" s="1">
         <f t="shared" si="18"/>
-        <v>41492</v>
+        <v>41464</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5658,7 +5655,7 @@
       </c>
       <c r="D295" s="1">
         <f t="shared" si="18"/>
-        <v>41499</v>
+        <v>41471</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5676,7 +5673,7 @@
       </c>
       <c r="D296" s="1">
         <f t="shared" si="18"/>
-        <v>41506</v>
+        <v>41478</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5694,7 +5691,7 @@
       </c>
       <c r="D297" s="1">
         <f t="shared" si="18"/>
-        <v>41513</v>
+        <v>41485</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,7 +5709,7 @@
       </c>
       <c r="D298" s="1">
         <f t="shared" si="18"/>
-        <v>41520</v>
+        <v>41492</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5730,7 +5727,7 @@
       </c>
       <c r="D299" s="1">
         <f t="shared" si="18"/>
-        <v>41527</v>
+        <v>41499</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5748,7 +5745,7 @@
       </c>
       <c r="D300" s="1">
         <f t="shared" si="18"/>
-        <v>41534</v>
+        <v>41506</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5766,7 +5763,7 @@
       </c>
       <c r="D301" s="1">
         <f t="shared" si="18"/>
-        <v>41541</v>
+        <v>41513</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5784,7 +5781,7 @@
       </c>
       <c r="D302" s="1">
         <f t="shared" si="18"/>
-        <v>41548</v>
+        <v>41520</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5802,7 +5799,7 @@
       </c>
       <c r="D303" s="1">
         <f t="shared" si="18"/>
-        <v>41555</v>
+        <v>41527</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5820,7 +5817,7 @@
       </c>
       <c r="D304" s="1">
         <f t="shared" si="18"/>
-        <v>41562</v>
+        <v>41534</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5838,7 +5835,7 @@
       </c>
       <c r="D305" s="1">
         <f t="shared" si="18"/>
-        <v>41569</v>
+        <v>41541</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,7 +5853,7 @@
       </c>
       <c r="D306" s="1">
         <f t="shared" si="18"/>
-        <v>41576</v>
+        <v>41548</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5874,7 +5871,7 @@
       </c>
       <c r="D307" s="1">
         <f t="shared" si="18"/>
-        <v>41583</v>
+        <v>41555</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5892,7 +5889,7 @@
       </c>
       <c r="D308" s="1">
         <f t="shared" si="18"/>
-        <v>41590</v>
+        <v>41562</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5910,7 +5907,7 @@
       </c>
       <c r="D309" s="1">
         <f t="shared" si="18"/>
-        <v>41597</v>
+        <v>41569</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5928,7 +5925,7 @@
       </c>
       <c r="D310" s="1">
         <f t="shared" si="18"/>
-        <v>41604</v>
+        <v>41576</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5946,7 +5943,7 @@
       </c>
       <c r="D311" s="1">
         <f t="shared" si="18"/>
-        <v>41611</v>
+        <v>41583</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5964,7 +5961,7 @@
       </c>
       <c r="D312" s="1">
         <f t="shared" si="18"/>
-        <v>41618</v>
+        <v>41590</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5982,7 +5979,7 @@
       </c>
       <c r="D313" s="1">
         <f t="shared" si="18"/>
-        <v>41625</v>
+        <v>41597</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,7 +5997,7 @@
       </c>
       <c r="D314" s="1">
         <f t="shared" si="18"/>
-        <v>41632</v>
+        <v>41604</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -6018,7 +6015,7 @@
       </c>
       <c r="D315" s="1">
         <f t="shared" si="18"/>
-        <v>41639</v>
+        <v>41611</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -6036,7 +6033,7 @@
       </c>
       <c r="D316" s="1">
         <f t="shared" si="18"/>
-        <v>41646</v>
+        <v>41618</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -6054,7 +6051,7 @@
       </c>
       <c r="D317" s="1">
         <f t="shared" si="18"/>
-        <v>41653</v>
+        <v>41625</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -6072,7 +6069,7 @@
       </c>
       <c r="D318" s="1">
         <f t="shared" si="18"/>
-        <v>41660</v>
+        <v>41632</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -6090,7 +6087,7 @@
       </c>
       <c r="D319" s="1">
         <f t="shared" si="18"/>
-        <v>41667</v>
+        <v>41639</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -6107,8 +6104,7 @@
         <v>20141</v>
       </c>
       <c r="D320" s="1">
-        <f t="shared" si="18"/>
-        <v>41674</v>
+        <v>41640</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6126,7 +6122,7 @@
       </c>
       <c r="D321" s="1">
         <f t="shared" si="18"/>
-        <v>41681</v>
+        <v>41647</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6144,7 +6140,7 @@
       </c>
       <c r="D322" s="1">
         <f t="shared" si="18"/>
-        <v>41688</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6162,7 +6158,7 @@
       </c>
       <c r="D323" s="1">
         <f t="shared" si="18"/>
-        <v>41695</v>
+        <v>41661</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6180,7 +6176,7 @@
       </c>
       <c r="D324" s="1">
         <f t="shared" ref="D324:D387" si="22">+D323+7</f>
-        <v>41702</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -6198,7 +6194,7 @@
       </c>
       <c r="D325" s="1">
         <f t="shared" si="22"/>
-        <v>41709</v>
+        <v>41675</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -6216,7 +6212,7 @@
       </c>
       <c r="D326" s="1">
         <f t="shared" si="22"/>
-        <v>41716</v>
+        <v>41682</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -6234,7 +6230,7 @@
       </c>
       <c r="D327" s="1">
         <f t="shared" si="22"/>
-        <v>41723</v>
+        <v>41689</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -6252,7 +6248,7 @@
       </c>
       <c r="D328" s="1">
         <f t="shared" si="22"/>
-        <v>41730</v>
+        <v>41696</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -6270,7 +6266,7 @@
       </c>
       <c r="D329" s="1">
         <f t="shared" si="22"/>
-        <v>41737</v>
+        <v>41703</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -6288,7 +6284,7 @@
       </c>
       <c r="D330" s="1">
         <f t="shared" si="22"/>
-        <v>41744</v>
+        <v>41710</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -6306,7 +6302,7 @@
       </c>
       <c r="D331" s="1">
         <f t="shared" si="22"/>
-        <v>41751</v>
+        <v>41717</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -6324,7 +6320,7 @@
       </c>
       <c r="D332" s="1">
         <f t="shared" si="22"/>
-        <v>41758</v>
+        <v>41724</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -6342,7 +6338,7 @@
       </c>
       <c r="D333" s="1">
         <f t="shared" si="22"/>
-        <v>41765</v>
+        <v>41731</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -6360,7 +6356,7 @@
       </c>
       <c r="D334" s="1">
         <f t="shared" si="22"/>
-        <v>41772</v>
+        <v>41738</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -6378,7 +6374,7 @@
       </c>
       <c r="D335" s="1">
         <f t="shared" si="22"/>
-        <v>41779</v>
+        <v>41745</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -6396,7 +6392,7 @@
       </c>
       <c r="D336" s="1">
         <f t="shared" si="22"/>
-        <v>41786</v>
+        <v>41752</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -6414,7 +6410,7 @@
       </c>
       <c r="D337" s="1">
         <f t="shared" si="22"/>
-        <v>41793</v>
+        <v>41759</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -6432,7 +6428,7 @@
       </c>
       <c r="D338" s="1">
         <f t="shared" si="22"/>
-        <v>41800</v>
+        <v>41766</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -6450,7 +6446,7 @@
       </c>
       <c r="D339" s="1">
         <f t="shared" si="22"/>
-        <v>41807</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -6468,7 +6464,7 @@
       </c>
       <c r="D340" s="1">
         <f t="shared" si="22"/>
-        <v>41814</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -6486,7 +6482,7 @@
       </c>
       <c r="D341" s="1">
         <f t="shared" si="22"/>
-        <v>41821</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -6504,7 +6500,7 @@
       </c>
       <c r="D342" s="1">
         <f t="shared" si="22"/>
-        <v>41828</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -6522,7 +6518,7 @@
       </c>
       <c r="D343" s="1">
         <f t="shared" si="22"/>
-        <v>41835</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -6540,7 +6536,7 @@
       </c>
       <c r="D344" s="1">
         <f t="shared" si="22"/>
-        <v>41842</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -6558,7 +6554,7 @@
       </c>
       <c r="D345" s="1">
         <f t="shared" si="22"/>
-        <v>41849</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -6576,7 +6572,7 @@
       </c>
       <c r="D346" s="1">
         <f t="shared" si="22"/>
-        <v>41856</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -6594,7 +6590,7 @@
       </c>
       <c r="D347" s="1">
         <f t="shared" si="22"/>
-        <v>41863</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -6612,7 +6608,7 @@
       </c>
       <c r="D348" s="1">
         <f t="shared" si="22"/>
-        <v>41870</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -6630,7 +6626,7 @@
       </c>
       <c r="D349" s="1">
         <f t="shared" si="22"/>
-        <v>41877</v>
+        <v>41843</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -6648,7 +6644,7 @@
       </c>
       <c r="D350" s="1">
         <f t="shared" si="22"/>
-        <v>41884</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -6666,7 +6662,7 @@
       </c>
       <c r="D351" s="1">
         <f t="shared" si="22"/>
-        <v>41891</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -6684,7 +6680,7 @@
       </c>
       <c r="D352" s="1">
         <f t="shared" si="22"/>
-        <v>41898</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -6702,7 +6698,7 @@
       </c>
       <c r="D353" s="1">
         <f t="shared" si="22"/>
-        <v>41905</v>
+        <v>41871</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -6720,7 +6716,7 @@
       </c>
       <c r="D354" s="1">
         <f t="shared" si="22"/>
-        <v>41912</v>
+        <v>41878</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -6738,7 +6734,7 @@
       </c>
       <c r="D355" s="1">
         <f t="shared" si="22"/>
-        <v>41919</v>
+        <v>41885</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -6756,7 +6752,7 @@
       </c>
       <c r="D356" s="1">
         <f t="shared" si="22"/>
-        <v>41926</v>
+        <v>41892</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -6774,7 +6770,7 @@
       </c>
       <c r="D357" s="1">
         <f t="shared" si="22"/>
-        <v>41933</v>
+        <v>41899</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -6792,7 +6788,7 @@
       </c>
       <c r="D358" s="1">
         <f t="shared" si="22"/>
-        <v>41940</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -6810,7 +6806,7 @@
       </c>
       <c r="D359" s="1">
         <f t="shared" si="22"/>
-        <v>41947</v>
+        <v>41913</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -6828,7 +6824,7 @@
       </c>
       <c r="D360" s="1">
         <f t="shared" si="22"/>
-        <v>41954</v>
+        <v>41920</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -6846,7 +6842,7 @@
       </c>
       <c r="D361" s="1">
         <f t="shared" si="22"/>
-        <v>41961</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -6864,7 +6860,7 @@
       </c>
       <c r="D362" s="1">
         <f t="shared" si="22"/>
-        <v>41968</v>
+        <v>41934</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -6882,7 +6878,7 @@
       </c>
       <c r="D363" s="1">
         <f t="shared" si="22"/>
-        <v>41975</v>
+        <v>41941</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -6900,7 +6896,7 @@
       </c>
       <c r="D364" s="1">
         <f t="shared" si="22"/>
-        <v>41982</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -6918,7 +6914,7 @@
       </c>
       <c r="D365" s="1">
         <f t="shared" si="22"/>
-        <v>41989</v>
+        <v>41955</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -6936,7 +6932,7 @@
       </c>
       <c r="D366" s="1">
         <f t="shared" si="22"/>
-        <v>41996</v>
+        <v>41962</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -6954,7 +6950,7 @@
       </c>
       <c r="D367" s="1">
         <f t="shared" si="22"/>
-        <v>42003</v>
+        <v>41969</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -6972,7 +6968,7 @@
       </c>
       <c r="D368" s="1">
         <f t="shared" si="22"/>
-        <v>42010</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -6990,7 +6986,7 @@
       </c>
       <c r="D369" s="1">
         <f t="shared" si="22"/>
-        <v>42017</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -7008,7 +7004,7 @@
       </c>
       <c r="D370" s="1">
         <f t="shared" si="22"/>
-        <v>42024</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -7026,7 +7022,7 @@
       </c>
       <c r="D371" s="1">
         <f t="shared" si="22"/>
-        <v>42031</v>
+        <v>41997</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -7044,7 +7040,7 @@
       </c>
       <c r="D372" s="1">
         <f t="shared" si="22"/>
-        <v>42038</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -7061,8 +7057,7 @@
         <v>20151</v>
       </c>
       <c r="D373" s="1">
-        <f t="shared" si="22"/>
-        <v>42045</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -7080,7 +7075,7 @@
       </c>
       <c r="D374" s="1">
         <f t="shared" si="22"/>
-        <v>42052</v>
+        <v>42012</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -7098,7 +7093,7 @@
       </c>
       <c r="D375" s="1">
         <f t="shared" si="22"/>
-        <v>42059</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -7116,7 +7111,7 @@
       </c>
       <c r="D376" s="1">
         <f t="shared" si="22"/>
-        <v>42066</v>
+        <v>42026</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -7134,7 +7129,7 @@
       </c>
       <c r="D377" s="1">
         <f t="shared" si="22"/>
-        <v>42073</v>
+        <v>42033</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -7152,7 +7147,7 @@
       </c>
       <c r="D378" s="1">
         <f t="shared" si="22"/>
-        <v>42080</v>
+        <v>42040</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -7170,7 +7165,7 @@
       </c>
       <c r="D379" s="1">
         <f t="shared" si="22"/>
-        <v>42087</v>
+        <v>42047</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -7188,7 +7183,7 @@
       </c>
       <c r="D380" s="1">
         <f t="shared" si="22"/>
-        <v>42094</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -7206,7 +7201,7 @@
       </c>
       <c r="D381" s="1">
         <f t="shared" si="22"/>
-        <v>42101</v>
+        <v>42061</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -7224,7 +7219,7 @@
       </c>
       <c r="D382" s="1">
         <f t="shared" si="22"/>
-        <v>42108</v>
+        <v>42068</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -7242,7 +7237,7 @@
       </c>
       <c r="D383" s="1">
         <f t="shared" si="22"/>
-        <v>42115</v>
+        <v>42075</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -7260,7 +7255,7 @@
       </c>
       <c r="D384" s="1">
         <f t="shared" si="22"/>
-        <v>42122</v>
+        <v>42082</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -7278,7 +7273,7 @@
       </c>
       <c r="D385" s="1">
         <f t="shared" si="22"/>
-        <v>42129</v>
+        <v>42089</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -7296,7 +7291,7 @@
       </c>
       <c r="D386" s="1">
         <f t="shared" si="22"/>
-        <v>42136</v>
+        <v>42096</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -7314,7 +7309,7 @@
       </c>
       <c r="D387" s="1">
         <f t="shared" si="22"/>
-        <v>42143</v>
+        <v>42103</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -7332,7 +7327,7 @@
       </c>
       <c r="D388" s="1">
         <f t="shared" ref="D388:D451" si="26">+D387+7</f>
-        <v>42150</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -7350,7 +7345,7 @@
       </c>
       <c r="D389" s="1">
         <f t="shared" si="26"/>
-        <v>42157</v>
+        <v>42117</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -7368,7 +7363,7 @@
       </c>
       <c r="D390" s="1">
         <f t="shared" si="26"/>
-        <v>42164</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -7386,7 +7381,7 @@
       </c>
       <c r="D391" s="1">
         <f t="shared" si="26"/>
-        <v>42171</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -7404,7 +7399,7 @@
       </c>
       <c r="D392" s="1">
         <f t="shared" si="26"/>
-        <v>42178</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -7422,7 +7417,7 @@
       </c>
       <c r="D393" s="1">
         <f t="shared" si="26"/>
-        <v>42185</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,7 +7435,7 @@
       </c>
       <c r="D394" s="1">
         <f t="shared" si="26"/>
-        <v>42192</v>
+        <v>42152</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -7458,7 +7453,7 @@
       </c>
       <c r="D395" s="1">
         <f t="shared" si="26"/>
-        <v>42199</v>
+        <v>42159</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -7476,7 +7471,7 @@
       </c>
       <c r="D396" s="1">
         <f t="shared" si="26"/>
-        <v>42206</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -7494,7 +7489,7 @@
       </c>
       <c r="D397" s="1">
         <f t="shared" si="26"/>
-        <v>42213</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -7512,7 +7507,7 @@
       </c>
       <c r="D398" s="1">
         <f t="shared" si="26"/>
-        <v>42220</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -7530,7 +7525,7 @@
       </c>
       <c r="D399" s="1">
         <f t="shared" si="26"/>
-        <v>42227</v>
+        <v>42187</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -7548,7 +7543,7 @@
       </c>
       <c r="D400" s="1">
         <f t="shared" si="26"/>
-        <v>42234</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -7566,7 +7561,7 @@
       </c>
       <c r="D401" s="1">
         <f t="shared" si="26"/>
-        <v>42241</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -7584,7 +7579,7 @@
       </c>
       <c r="D402" s="1">
         <f t="shared" si="26"/>
-        <v>42248</v>
+        <v>42208</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -7602,7 +7597,7 @@
       </c>
       <c r="D403" s="1">
         <f t="shared" si="26"/>
-        <v>42255</v>
+        <v>42215</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -7620,7 +7615,7 @@
       </c>
       <c r="D404" s="1">
         <f t="shared" si="26"/>
-        <v>42262</v>
+        <v>42222</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -7638,7 +7633,7 @@
       </c>
       <c r="D405" s="1">
         <f t="shared" si="26"/>
-        <v>42269</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -7656,7 +7651,7 @@
       </c>
       <c r="D406" s="1">
         <f t="shared" si="26"/>
-        <v>42276</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -7674,7 +7669,7 @@
       </c>
       <c r="D407" s="1">
         <f t="shared" si="26"/>
-        <v>42283</v>
+        <v>42243</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -7692,7 +7687,7 @@
       </c>
       <c r="D408" s="1">
         <f t="shared" si="26"/>
-        <v>42290</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -7710,7 +7705,7 @@
       </c>
       <c r="D409" s="1">
         <f t="shared" si="26"/>
-        <v>42297</v>
+        <v>42257</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -7728,7 +7723,7 @@
       </c>
       <c r="D410" s="1">
         <f t="shared" si="26"/>
-        <v>42304</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -7746,7 +7741,7 @@
       </c>
       <c r="D411" s="1">
         <f t="shared" si="26"/>
-        <v>42311</v>
+        <v>42271</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -7764,7 +7759,7 @@
       </c>
       <c r="D412" s="1">
         <f t="shared" si="26"/>
-        <v>42318</v>
+        <v>42278</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -7782,7 +7777,7 @@
       </c>
       <c r="D413" s="1">
         <f t="shared" si="26"/>
-        <v>42325</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -7800,7 +7795,7 @@
       </c>
       <c r="D414" s="1">
         <f t="shared" si="26"/>
-        <v>42332</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -7818,7 +7813,7 @@
       </c>
       <c r="D415" s="1">
         <f t="shared" si="26"/>
-        <v>42339</v>
+        <v>42299</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -7836,7 +7831,7 @@
       </c>
       <c r="D416" s="1">
         <f t="shared" si="26"/>
-        <v>42346</v>
+        <v>42306</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -7854,7 +7849,7 @@
       </c>
       <c r="D417" s="1">
         <f t="shared" si="26"/>
-        <v>42353</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -7872,7 +7867,7 @@
       </c>
       <c r="D418" s="1">
         <f t="shared" si="26"/>
-        <v>42360</v>
+        <v>42320</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -7890,7 +7885,7 @@
       </c>
       <c r="D419" s="1">
         <f t="shared" si="26"/>
-        <v>42367</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -7908,7 +7903,7 @@
       </c>
       <c r="D420" s="1">
         <f t="shared" si="26"/>
-        <v>42374</v>
+        <v>42334</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -7926,7 +7921,7 @@
       </c>
       <c r="D421" s="1">
         <f t="shared" si="26"/>
-        <v>42381</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -7944,7 +7939,7 @@
       </c>
       <c r="D422" s="1">
         <f t="shared" si="26"/>
-        <v>42388</v>
+        <v>42348</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -7962,7 +7957,7 @@
       </c>
       <c r="D423" s="1">
         <f t="shared" si="26"/>
-        <v>42395</v>
+        <v>42355</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -7980,7 +7975,7 @@
       </c>
       <c r="D424" s="1">
         <f t="shared" si="26"/>
-        <v>42402</v>
+        <v>42362</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -7998,7 +7993,7 @@
       </c>
       <c r="D425" s="1">
         <f t="shared" si="26"/>
-        <v>42409</v>
+        <v>42369</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -8015,8 +8010,7 @@
         <v>20161</v>
       </c>
       <c r="D426" s="1">
-        <f t="shared" si="26"/>
-        <v>42416</v>
+        <v>42370</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -8034,7 +8028,7 @@
       </c>
       <c r="D427" s="1">
         <f t="shared" si="26"/>
-        <v>42423</v>
+        <v>42377</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -8052,7 +8046,7 @@
       </c>
       <c r="D428" s="1">
         <f t="shared" si="26"/>
-        <v>42430</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -8070,7 +8064,7 @@
       </c>
       <c r="D429" s="1">
         <f t="shared" si="26"/>
-        <v>42437</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -8088,7 +8082,7 @@
       </c>
       <c r="D430" s="1">
         <f t="shared" si="26"/>
-        <v>42444</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -8106,7 +8100,7 @@
       </c>
       <c r="D431" s="1">
         <f t="shared" si="26"/>
-        <v>42451</v>
+        <v>42405</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -8124,7 +8118,7 @@
       </c>
       <c r="D432" s="1">
         <f t="shared" si="26"/>
-        <v>42458</v>
+        <v>42412</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -8142,7 +8136,7 @@
       </c>
       <c r="D433" s="1">
         <f t="shared" si="26"/>
-        <v>42465</v>
+        <v>42419</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -8160,7 +8154,7 @@
       </c>
       <c r="D434" s="1">
         <f t="shared" si="26"/>
-        <v>42472</v>
+        <v>42426</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -8178,7 +8172,7 @@
       </c>
       <c r="D435" s="1">
         <f t="shared" si="26"/>
-        <v>42479</v>
+        <v>42433</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -8196,7 +8190,7 @@
       </c>
       <c r="D436" s="1">
         <f t="shared" si="26"/>
-        <v>42486</v>
+        <v>42440</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -8214,7 +8208,7 @@
       </c>
       <c r="D437" s="1">
         <f t="shared" si="26"/>
-        <v>42493</v>
+        <v>42447</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -8232,7 +8226,7 @@
       </c>
       <c r="D438" s="1">
         <f t="shared" si="26"/>
-        <v>42500</v>
+        <v>42454</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -8250,7 +8244,7 @@
       </c>
       <c r="D439" s="1">
         <f t="shared" si="26"/>
-        <v>42507</v>
+        <v>42461</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -8268,7 +8262,7 @@
       </c>
       <c r="D440" s="1">
         <f t="shared" si="26"/>
-        <v>42514</v>
+        <v>42468</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -8286,7 +8280,7 @@
       </c>
       <c r="D441" s="1">
         <f t="shared" si="26"/>
-        <v>42521</v>
+        <v>42475</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -8304,7 +8298,7 @@
       </c>
       <c r="D442" s="1">
         <f t="shared" si="26"/>
-        <v>42528</v>
+        <v>42482</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -8322,7 +8316,7 @@
       </c>
       <c r="D443" s="1">
         <f t="shared" si="26"/>
-        <v>42535</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -8340,7 +8334,7 @@
       </c>
       <c r="D444" s="1">
         <f t="shared" si="26"/>
-        <v>42542</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -8358,7 +8352,7 @@
       </c>
       <c r="D445" s="1">
         <f t="shared" si="26"/>
-        <v>42549</v>
+        <v>42503</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -8376,7 +8370,7 @@
       </c>
       <c r="D446" s="1">
         <f t="shared" si="26"/>
-        <v>42556</v>
+        <v>42510</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -8394,7 +8388,7 @@
       </c>
       <c r="D447" s="1">
         <f t="shared" si="26"/>
-        <v>42563</v>
+        <v>42517</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -8412,7 +8406,7 @@
       </c>
       <c r="D448" s="1">
         <f t="shared" si="26"/>
-        <v>42570</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -8430,7 +8424,7 @@
       </c>
       <c r="D449" s="1">
         <f t="shared" si="26"/>
-        <v>42577</v>
+        <v>42531</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -8448,7 +8442,7 @@
       </c>
       <c r="D450" s="1">
         <f t="shared" si="26"/>
-        <v>42584</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -8466,7 +8460,7 @@
       </c>
       <c r="D451" s="1">
         <f t="shared" si="26"/>
-        <v>42591</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -8484,7 +8478,7 @@
       </c>
       <c r="D452" s="1">
         <f t="shared" ref="D452:D515" si="30">+D451+7</f>
-        <v>42598</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -8502,7 +8496,7 @@
       </c>
       <c r="D453" s="1">
         <f t="shared" si="30"/>
-        <v>42605</v>
+        <v>42559</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -8520,7 +8514,7 @@
       </c>
       <c r="D454" s="1">
         <f t="shared" si="30"/>
-        <v>42612</v>
+        <v>42566</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -8538,7 +8532,7 @@
       </c>
       <c r="D455" s="1">
         <f t="shared" si="30"/>
-        <v>42619</v>
+        <v>42573</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -8556,7 +8550,7 @@
       </c>
       <c r="D456" s="1">
         <f t="shared" si="30"/>
-        <v>42626</v>
+        <v>42580</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -8574,7 +8568,7 @@
       </c>
       <c r="D457" s="1">
         <f t="shared" si="30"/>
-        <v>42633</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -8592,7 +8586,7 @@
       </c>
       <c r="D458" s="1">
         <f t="shared" si="30"/>
-        <v>42640</v>
+        <v>42594</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -8610,7 +8604,7 @@
       </c>
       <c r="D459" s="1">
         <f t="shared" si="30"/>
-        <v>42647</v>
+        <v>42601</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -8628,7 +8622,7 @@
       </c>
       <c r="D460" s="1">
         <f t="shared" si="30"/>
-        <v>42654</v>
+        <v>42608</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -8646,7 +8640,7 @@
       </c>
       <c r="D461" s="1">
         <f t="shared" si="30"/>
-        <v>42661</v>
+        <v>42615</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -8664,7 +8658,7 @@
       </c>
       <c r="D462" s="1">
         <f t="shared" si="30"/>
-        <v>42668</v>
+        <v>42622</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -8682,7 +8676,7 @@
       </c>
       <c r="D463" s="1">
         <f t="shared" si="30"/>
-        <v>42675</v>
+        <v>42629</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -8700,7 +8694,7 @@
       </c>
       <c r="D464" s="1">
         <f t="shared" si="30"/>
-        <v>42682</v>
+        <v>42636</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -8718,7 +8712,7 @@
       </c>
       <c r="D465" s="1">
         <f t="shared" si="30"/>
-        <v>42689</v>
+        <v>42643</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -8736,7 +8730,7 @@
       </c>
       <c r="D466" s="1">
         <f t="shared" si="30"/>
-        <v>42696</v>
+        <v>42650</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -8754,7 +8748,7 @@
       </c>
       <c r="D467" s="1">
         <f t="shared" si="30"/>
-        <v>42703</v>
+        <v>42657</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -8772,7 +8766,7 @@
       </c>
       <c r="D468" s="1">
         <f t="shared" si="30"/>
-        <v>42710</v>
+        <v>42664</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -8790,7 +8784,7 @@
       </c>
       <c r="D469" s="1">
         <f t="shared" si="30"/>
-        <v>42717</v>
+        <v>42671</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -8808,7 +8802,7 @@
       </c>
       <c r="D470" s="1">
         <f t="shared" si="30"/>
-        <v>42724</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -8826,7 +8820,7 @@
       </c>
       <c r="D471" s="1">
         <f t="shared" si="30"/>
-        <v>42731</v>
+        <v>42685</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -8844,7 +8838,7 @@
       </c>
       <c r="D472" s="1">
         <f t="shared" si="30"/>
-        <v>42738</v>
+        <v>42692</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -8862,7 +8856,7 @@
       </c>
       <c r="D473" s="1">
         <f t="shared" si="30"/>
-        <v>42745</v>
+        <v>42699</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -8880,7 +8874,7 @@
       </c>
       <c r="D474" s="1">
         <f t="shared" si="30"/>
-        <v>42752</v>
+        <v>42706</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -8898,7 +8892,7 @@
       </c>
       <c r="D475" s="1">
         <f t="shared" si="30"/>
-        <v>42759</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -8916,7 +8910,7 @@
       </c>
       <c r="D476" s="1">
         <f t="shared" si="30"/>
-        <v>42766</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -8934,7 +8928,7 @@
       </c>
       <c r="D477" s="1">
         <f t="shared" si="30"/>
-        <v>42773</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -8952,7 +8946,7 @@
       </c>
       <c r="D478" s="1">
         <f t="shared" si="30"/>
-        <v>42780</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -8969,8 +8963,7 @@
         <v>20171</v>
       </c>
       <c r="D479" s="1">
-        <f t="shared" si="30"/>
-        <v>42787</v>
+        <v>42736</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -8988,7 +8981,7 @@
       </c>
       <c r="D480" s="1">
         <f t="shared" si="30"/>
-        <v>42794</v>
+        <v>42743</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -9006,7 +8999,7 @@
       </c>
       <c r="D481" s="1">
         <f t="shared" si="30"/>
-        <v>42801</v>
+        <v>42750</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -9024,7 +9017,7 @@
       </c>
       <c r="D482" s="1">
         <f t="shared" si="30"/>
-        <v>42808</v>
+        <v>42757</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -9042,7 +9035,7 @@
       </c>
       <c r="D483" s="1">
         <f t="shared" si="30"/>
-        <v>42815</v>
+        <v>42764</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -9060,7 +9053,7 @@
       </c>
       <c r="D484" s="1">
         <f t="shared" si="30"/>
-        <v>42822</v>
+        <v>42771</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -9078,7 +9071,7 @@
       </c>
       <c r="D485" s="1">
         <f t="shared" si="30"/>
-        <v>42829</v>
+        <v>42778</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -9096,7 +9089,7 @@
       </c>
       <c r="D486" s="1">
         <f t="shared" si="30"/>
-        <v>42836</v>
+        <v>42785</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -9114,7 +9107,7 @@
       </c>
       <c r="D487" s="1">
         <f t="shared" si="30"/>
-        <v>42843</v>
+        <v>42792</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -9132,7 +9125,7 @@
       </c>
       <c r="D488" s="1">
         <f t="shared" si="30"/>
-        <v>42850</v>
+        <v>42799</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -9150,7 +9143,7 @@
       </c>
       <c r="D489" s="1">
         <f t="shared" si="30"/>
-        <v>42857</v>
+        <v>42806</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -9168,7 +9161,7 @@
       </c>
       <c r="D490" s="1">
         <f t="shared" si="30"/>
-        <v>42864</v>
+        <v>42813</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -9186,7 +9179,7 @@
       </c>
       <c r="D491" s="1">
         <f t="shared" si="30"/>
-        <v>42871</v>
+        <v>42820</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -9204,7 +9197,7 @@
       </c>
       <c r="D492" s="1">
         <f t="shared" si="30"/>
-        <v>42878</v>
+        <v>42827</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -9222,7 +9215,7 @@
       </c>
       <c r="D493" s="1">
         <f t="shared" si="30"/>
-        <v>42885</v>
+        <v>42834</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -9240,7 +9233,7 @@
       </c>
       <c r="D494" s="1">
         <f t="shared" si="30"/>
-        <v>42892</v>
+        <v>42841</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -9258,7 +9251,7 @@
       </c>
       <c r="D495" s="1">
         <f t="shared" si="30"/>
-        <v>42899</v>
+        <v>42848</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -9276,7 +9269,7 @@
       </c>
       <c r="D496" s="1">
         <f t="shared" si="30"/>
-        <v>42906</v>
+        <v>42855</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -9294,7 +9287,7 @@
       </c>
       <c r="D497" s="1">
         <f t="shared" si="30"/>
-        <v>42913</v>
+        <v>42862</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -9312,7 +9305,7 @@
       </c>
       <c r="D498" s="1">
         <f t="shared" si="30"/>
-        <v>42920</v>
+        <v>42869</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -9330,7 +9323,7 @@
       </c>
       <c r="D499" s="1">
         <f t="shared" si="30"/>
-        <v>42927</v>
+        <v>42876</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -9348,7 +9341,7 @@
       </c>
       <c r="D500" s="1">
         <f t="shared" si="30"/>
-        <v>42934</v>
+        <v>42883</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -9366,7 +9359,7 @@
       </c>
       <c r="D501" s="1">
         <f t="shared" si="30"/>
-        <v>42941</v>
+        <v>42890</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -9384,7 +9377,7 @@
       </c>
       <c r="D502" s="1">
         <f t="shared" si="30"/>
-        <v>42948</v>
+        <v>42897</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -9402,7 +9395,7 @@
       </c>
       <c r="D503" s="1">
         <f t="shared" si="30"/>
-        <v>42955</v>
+        <v>42904</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -9420,7 +9413,7 @@
       </c>
       <c r="D504" s="1">
         <f t="shared" si="30"/>
-        <v>42962</v>
+        <v>42911</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -9438,7 +9431,7 @@
       </c>
       <c r="D505" s="1">
         <f t="shared" si="30"/>
-        <v>42969</v>
+        <v>42918</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -9456,7 +9449,7 @@
       </c>
       <c r="D506" s="1">
         <f t="shared" si="30"/>
-        <v>42976</v>
+        <v>42925</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -9474,7 +9467,7 @@
       </c>
       <c r="D507" s="1">
         <f t="shared" si="30"/>
-        <v>42983</v>
+        <v>42932</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -9492,7 +9485,7 @@
       </c>
       <c r="D508" s="1">
         <f t="shared" si="30"/>
-        <v>42990</v>
+        <v>42939</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -9510,7 +9503,7 @@
       </c>
       <c r="D509" s="1">
         <f t="shared" si="30"/>
-        <v>42997</v>
+        <v>42946</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -9528,7 +9521,7 @@
       </c>
       <c r="D510" s="1">
         <f t="shared" si="30"/>
-        <v>43004</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -9546,7 +9539,7 @@
       </c>
       <c r="D511" s="1">
         <f t="shared" si="30"/>
-        <v>43011</v>
+        <v>42960</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -9564,7 +9557,7 @@
       </c>
       <c r="D512" s="1">
         <f t="shared" si="30"/>
-        <v>43018</v>
+        <v>42967</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -9582,7 +9575,7 @@
       </c>
       <c r="D513" s="1">
         <f t="shared" si="30"/>
-        <v>43025</v>
+        <v>42974</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -9600,7 +9593,7 @@
       </c>
       <c r="D514" s="1">
         <f t="shared" si="30"/>
-        <v>43032</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -9618,7 +9611,7 @@
       </c>
       <c r="D515" s="1">
         <f t="shared" si="30"/>
-        <v>43039</v>
+        <v>42988</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -9636,7 +9629,7 @@
       </c>
       <c r="D516" s="1">
         <f t="shared" ref="D516:D579" si="34">+D515+7</f>
-        <v>43046</v>
+        <v>42995</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -9654,7 +9647,7 @@
       </c>
       <c r="D517" s="1">
         <f t="shared" si="34"/>
-        <v>43053</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -9672,7 +9665,7 @@
       </c>
       <c r="D518" s="1">
         <f t="shared" si="34"/>
-        <v>43060</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -9690,7 +9683,7 @@
       </c>
       <c r="D519" s="1">
         <f t="shared" si="34"/>
-        <v>43067</v>
+        <v>43016</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -9708,7 +9701,7 @@
       </c>
       <c r="D520" s="1">
         <f t="shared" si="34"/>
-        <v>43074</v>
+        <v>43023</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -9726,7 +9719,7 @@
       </c>
       <c r="D521" s="1">
         <f t="shared" si="34"/>
-        <v>43081</v>
+        <v>43030</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -9744,7 +9737,7 @@
       </c>
       <c r="D522" s="1">
         <f t="shared" si="34"/>
-        <v>43088</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -9762,7 +9755,7 @@
       </c>
       <c r="D523" s="1">
         <f t="shared" si="34"/>
-        <v>43095</v>
+        <v>43044</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -9780,7 +9773,7 @@
       </c>
       <c r="D524" s="1">
         <f t="shared" si="34"/>
-        <v>43102</v>
+        <v>43051</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -9798,7 +9791,7 @@
       </c>
       <c r="D525" s="1">
         <f t="shared" si="34"/>
-        <v>43109</v>
+        <v>43058</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -9816,7 +9809,7 @@
       </c>
       <c r="D526" s="1">
         <f t="shared" si="34"/>
-        <v>43116</v>
+        <v>43065</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -9834,7 +9827,7 @@
       </c>
       <c r="D527" s="1">
         <f t="shared" si="34"/>
-        <v>43123</v>
+        <v>43072</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -9852,7 +9845,7 @@
       </c>
       <c r="D528" s="1">
         <f t="shared" si="34"/>
-        <v>43130</v>
+        <v>43079</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -9870,7 +9863,7 @@
       </c>
       <c r="D529" s="1">
         <f t="shared" si="34"/>
-        <v>43137</v>
+        <v>43086</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -9888,7 +9881,7 @@
       </c>
       <c r="D530" s="1">
         <f t="shared" si="34"/>
-        <v>43144</v>
+        <v>43093</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -9906,7 +9899,7 @@
       </c>
       <c r="D531" s="1">
         <f t="shared" si="34"/>
-        <v>43151</v>
+        <v>43100</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -9923,8 +9916,7 @@
         <v>20181</v>
       </c>
       <c r="D532" s="1">
-        <f t="shared" si="34"/>
-        <v>43158</v>
+        <v>43101</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -9942,7 +9934,7 @@
       </c>
       <c r="D533" s="1">
         <f t="shared" si="34"/>
-        <v>43165</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -9960,7 +9952,7 @@
       </c>
       <c r="D534" s="1">
         <f t="shared" si="34"/>
-        <v>43172</v>
+        <v>43115</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -9978,7 +9970,7 @@
       </c>
       <c r="D535" s="1">
         <f t="shared" si="34"/>
-        <v>43179</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -9996,7 +9988,7 @@
       </c>
       <c r="D536" s="1">
         <f t="shared" si="34"/>
-        <v>43186</v>
+        <v>43129</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -10014,7 +10006,7 @@
       </c>
       <c r="D537" s="1">
         <f t="shared" si="34"/>
-        <v>43193</v>
+        <v>43136</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -10032,7 +10024,7 @@
       </c>
       <c r="D538" s="1">
         <f t="shared" si="34"/>
-        <v>43200</v>
+        <v>43143</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -10050,7 +10042,7 @@
       </c>
       <c r="D539" s="1">
         <f t="shared" si="34"/>
-        <v>43207</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -10068,7 +10060,7 @@
       </c>
       <c r="D540" s="1">
         <f t="shared" si="34"/>
-        <v>43214</v>
+        <v>43157</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -10086,7 +10078,7 @@
       </c>
       <c r="D541" s="1">
         <f t="shared" si="34"/>
-        <v>43221</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -10104,7 +10096,7 @@
       </c>
       <c r="D542" s="1">
         <f t="shared" si="34"/>
-        <v>43228</v>
+        <v>43171</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -10122,7 +10114,7 @@
       </c>
       <c r="D543" s="1">
         <f t="shared" si="34"/>
-        <v>43235</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -10140,7 +10132,7 @@
       </c>
       <c r="D544" s="1">
         <f t="shared" si="34"/>
-        <v>43242</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -10158,7 +10150,7 @@
       </c>
       <c r="D545" s="1">
         <f t="shared" si="34"/>
-        <v>43249</v>
+        <v>43192</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -10176,7 +10168,7 @@
       </c>
       <c r="D546" s="1">
         <f t="shared" si="34"/>
-        <v>43256</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -10194,7 +10186,7 @@
       </c>
       <c r="D547" s="1">
         <f t="shared" si="34"/>
-        <v>43263</v>
+        <v>43206</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -10212,7 +10204,7 @@
       </c>
       <c r="D548" s="1">
         <f t="shared" si="34"/>
-        <v>43270</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -10230,7 +10222,7 @@
       </c>
       <c r="D549" s="1">
         <f t="shared" si="34"/>
-        <v>43277</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -10248,7 +10240,7 @@
       </c>
       <c r="D550" s="1">
         <f t="shared" si="34"/>
-        <v>43284</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -10266,7 +10258,7 @@
       </c>
       <c r="D551" s="1">
         <f t="shared" si="34"/>
-        <v>43291</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -10284,7 +10276,7 @@
       </c>
       <c r="D552" s="1">
         <f t="shared" si="34"/>
-        <v>43298</v>
+        <v>43241</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -10302,7 +10294,7 @@
       </c>
       <c r="D553" s="1">
         <f t="shared" si="34"/>
-        <v>43305</v>
+        <v>43248</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -10320,7 +10312,7 @@
       </c>
       <c r="D554" s="1">
         <f t="shared" si="34"/>
-        <v>43312</v>
+        <v>43255</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -10338,7 +10330,7 @@
       </c>
       <c r="D555" s="1">
         <f t="shared" si="34"/>
-        <v>43319</v>
+        <v>43262</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -10356,7 +10348,7 @@
       </c>
       <c r="D556" s="1">
         <f t="shared" si="34"/>
-        <v>43326</v>
+        <v>43269</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -10374,7 +10366,7 @@
       </c>
       <c r="D557" s="1">
         <f t="shared" si="34"/>
-        <v>43333</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -10392,7 +10384,7 @@
       </c>
       <c r="D558" s="1">
         <f t="shared" si="34"/>
-        <v>43340</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -10410,7 +10402,7 @@
       </c>
       <c r="D559" s="1">
         <f t="shared" si="34"/>
-        <v>43347</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -10428,7 +10420,7 @@
       </c>
       <c r="D560" s="1">
         <f t="shared" si="34"/>
-        <v>43354</v>
+        <v>43297</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -10446,7 +10438,7 @@
       </c>
       <c r="D561" s="1">
         <f t="shared" si="34"/>
-        <v>43361</v>
+        <v>43304</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -10464,7 +10456,7 @@
       </c>
       <c r="D562" s="1">
         <f t="shared" si="34"/>
-        <v>43368</v>
+        <v>43311</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -10482,7 +10474,7 @@
       </c>
       <c r="D563" s="1">
         <f t="shared" si="34"/>
-        <v>43375</v>
+        <v>43318</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -10500,7 +10492,7 @@
       </c>
       <c r="D564" s="1">
         <f t="shared" si="34"/>
-        <v>43382</v>
+        <v>43325</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -10518,7 +10510,7 @@
       </c>
       <c r="D565" s="1">
         <f t="shared" si="34"/>
-        <v>43389</v>
+        <v>43332</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -10536,7 +10528,7 @@
       </c>
       <c r="D566" s="1">
         <f t="shared" si="34"/>
-        <v>43396</v>
+        <v>43339</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -10554,7 +10546,7 @@
       </c>
       <c r="D567" s="1">
         <f t="shared" si="34"/>
-        <v>43403</v>
+        <v>43346</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -10572,7 +10564,7 @@
       </c>
       <c r="D568" s="1">
         <f t="shared" si="34"/>
-        <v>43410</v>
+        <v>43353</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -10590,7 +10582,7 @@
       </c>
       <c r="D569" s="1">
         <f t="shared" si="34"/>
-        <v>43417</v>
+        <v>43360</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -10608,7 +10600,7 @@
       </c>
       <c r="D570" s="1">
         <f t="shared" si="34"/>
-        <v>43424</v>
+        <v>43367</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -10626,7 +10618,7 @@
       </c>
       <c r="D571" s="1">
         <f t="shared" si="34"/>
-        <v>43431</v>
+        <v>43374</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -10644,7 +10636,7 @@
       </c>
       <c r="D572" s="1">
         <f t="shared" si="34"/>
-        <v>43438</v>
+        <v>43381</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -10662,7 +10654,7 @@
       </c>
       <c r="D573" s="1">
         <f t="shared" si="34"/>
-        <v>43445</v>
+        <v>43388</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -10680,7 +10672,7 @@
       </c>
       <c r="D574" s="1">
         <f t="shared" si="34"/>
-        <v>43452</v>
+        <v>43395</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -10698,7 +10690,7 @@
       </c>
       <c r="D575" s="1">
         <f t="shared" si="34"/>
-        <v>43459</v>
+        <v>43402</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -10716,7 +10708,7 @@
       </c>
       <c r="D576" s="1">
         <f t="shared" si="34"/>
-        <v>43466</v>
+        <v>43409</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -10734,7 +10726,7 @@
       </c>
       <c r="D577" s="1">
         <f t="shared" si="34"/>
-        <v>43473</v>
+        <v>43416</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -10752,7 +10744,7 @@
       </c>
       <c r="D578" s="1">
         <f t="shared" si="34"/>
-        <v>43480</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -10770,7 +10762,7 @@
       </c>
       <c r="D579" s="1">
         <f t="shared" si="34"/>
-        <v>43487</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -10788,7 +10780,7 @@
       </c>
       <c r="D580" s="1">
         <f t="shared" ref="D580:D643" si="38">+D579+7</f>
-        <v>43494</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -10806,7 +10798,7 @@
       </c>
       <c r="D581" s="1">
         <f t="shared" si="38"/>
-        <v>43501</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -10824,7 +10816,7 @@
       </c>
       <c r="D582" s="1">
         <f t="shared" si="38"/>
-        <v>43508</v>
+        <v>43451</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -10842,7 +10834,7 @@
       </c>
       <c r="D583" s="1">
         <f t="shared" si="38"/>
-        <v>43515</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -10860,7 +10852,7 @@
       </c>
       <c r="D584" s="1">
         <f t="shared" si="38"/>
-        <v>43522</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -10877,8 +10869,7 @@
         <v>20191</v>
       </c>
       <c r="D585" s="1">
-        <f t="shared" si="38"/>
-        <v>43529</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -10896,7 +10887,7 @@
       </c>
       <c r="D586" s="1">
         <f t="shared" si="38"/>
-        <v>43536</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -10914,7 +10905,7 @@
       </c>
       <c r="D587" s="1">
         <f t="shared" si="38"/>
-        <v>43543</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -10932,7 +10923,7 @@
       </c>
       <c r="D588" s="1">
         <f t="shared" si="38"/>
-        <v>43550</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -10950,7 +10941,7 @@
       </c>
       <c r="D589" s="1">
         <f t="shared" si="38"/>
-        <v>43557</v>
+        <v>43494</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -10968,7 +10959,7 @@
       </c>
       <c r="D590" s="1">
         <f t="shared" si="38"/>
-        <v>43564</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -10986,7 +10977,7 @@
       </c>
       <c r="D591" s="1">
         <f t="shared" si="38"/>
-        <v>43571</v>
+        <v>43508</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -11004,7 +10995,7 @@
       </c>
       <c r="D592" s="1">
         <f t="shared" si="38"/>
-        <v>43578</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -11022,7 +11013,7 @@
       </c>
       <c r="D593" s="1">
         <f t="shared" si="38"/>
-        <v>43585</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -11040,7 +11031,7 @@
       </c>
       <c r="D594" s="1">
         <f t="shared" si="38"/>
-        <v>43592</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -11058,7 +11049,7 @@
       </c>
       <c r="D595" s="1">
         <f t="shared" si="38"/>
-        <v>43599</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -11076,7 +11067,7 @@
       </c>
       <c r="D596" s="1">
         <f t="shared" si="38"/>
-        <v>43606</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -11094,7 +11085,7 @@
       </c>
       <c r="D597" s="1">
         <f t="shared" si="38"/>
-        <v>43613</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -11112,7 +11103,7 @@
       </c>
       <c r="D598" s="1">
         <f t="shared" si="38"/>
-        <v>43620</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -11130,7 +11121,7 @@
       </c>
       <c r="D599" s="1">
         <f t="shared" si="38"/>
-        <v>43627</v>
+        <v>43564</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -11148,7 +11139,7 @@
       </c>
       <c r="D600" s="1">
         <f t="shared" si="38"/>
-        <v>43634</v>
+        <v>43571</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -11166,7 +11157,7 @@
       </c>
       <c r="D601" s="1">
         <f t="shared" si="38"/>
-        <v>43641</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
@@ -11184,7 +11175,7 @@
       </c>
       <c r="D602" s="1">
         <f t="shared" si="38"/>
-        <v>43648</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
@@ -11202,7 +11193,7 @@
       </c>
       <c r="D603" s="1">
         <f t="shared" si="38"/>
-        <v>43655</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -11220,7 +11211,7 @@
       </c>
       <c r="D604" s="1">
         <f t="shared" si="38"/>
-        <v>43662</v>
+        <v>43599</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
@@ -11238,7 +11229,7 @@
       </c>
       <c r="D605" s="1">
         <f t="shared" si="38"/>
-        <v>43669</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -11256,7 +11247,7 @@
       </c>
       <c r="D606" s="1">
         <f t="shared" si="38"/>
-        <v>43676</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
@@ -11274,7 +11265,7 @@
       </c>
       <c r="D607" s="1">
         <f t="shared" si="38"/>
-        <v>43683</v>
+        <v>43620</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -11292,7 +11283,7 @@
       </c>
       <c r="D608" s="1">
         <f t="shared" si="38"/>
-        <v>43690</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -11310,7 +11301,7 @@
       </c>
       <c r="D609" s="1">
         <f t="shared" si="38"/>
-        <v>43697</v>
+        <v>43634</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -11328,7 +11319,7 @@
       </c>
       <c r="D610" s="1">
         <f t="shared" si="38"/>
-        <v>43704</v>
+        <v>43641</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
@@ -11346,7 +11337,7 @@
       </c>
       <c r="D611" s="1">
         <f t="shared" si="38"/>
-        <v>43711</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -11364,7 +11355,7 @@
       </c>
       <c r="D612" s="1">
         <f t="shared" si="38"/>
-        <v>43718</v>
+        <v>43655</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -11382,7 +11373,7 @@
       </c>
       <c r="D613" s="1">
         <f t="shared" si="38"/>
-        <v>43725</v>
+        <v>43662</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -11400,7 +11391,7 @@
       </c>
       <c r="D614" s="1">
         <f t="shared" si="38"/>
-        <v>43732</v>
+        <v>43669</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -11418,7 +11409,7 @@
       </c>
       <c r="D615" s="1">
         <f t="shared" si="38"/>
-        <v>43739</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -11436,7 +11427,7 @@
       </c>
       <c r="D616" s="1">
         <f t="shared" si="38"/>
-        <v>43746</v>
+        <v>43683</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -11454,7 +11445,7 @@
       </c>
       <c r="D617" s="1">
         <f t="shared" si="38"/>
-        <v>43753</v>
+        <v>43690</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
@@ -11472,7 +11463,7 @@
       </c>
       <c r="D618" s="1">
         <f t="shared" si="38"/>
-        <v>43760</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
@@ -11490,7 +11481,7 @@
       </c>
       <c r="D619" s="1">
         <f t="shared" si="38"/>
-        <v>43767</v>
+        <v>43704</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
@@ -11508,7 +11499,7 @@
       </c>
       <c r="D620" s="1">
         <f t="shared" si="38"/>
-        <v>43774</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
@@ -11526,7 +11517,7 @@
       </c>
       <c r="D621" s="1">
         <f t="shared" si="38"/>
-        <v>43781</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
@@ -11544,7 +11535,7 @@
       </c>
       <c r="D622" s="1">
         <f t="shared" si="38"/>
-        <v>43788</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
@@ -11562,7 +11553,7 @@
       </c>
       <c r="D623" s="1">
         <f t="shared" si="38"/>
-        <v>43795</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
@@ -11580,7 +11571,7 @@
       </c>
       <c r="D624" s="1">
         <f t="shared" si="38"/>
-        <v>43802</v>
+        <v>43739</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
@@ -11598,7 +11589,7 @@
       </c>
       <c r="D625" s="1">
         <f t="shared" si="38"/>
-        <v>43809</v>
+        <v>43746</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
@@ -11616,7 +11607,7 @@
       </c>
       <c r="D626" s="1">
         <f t="shared" si="38"/>
-        <v>43816</v>
+        <v>43753</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
@@ -11634,7 +11625,7 @@
       </c>
       <c r="D627" s="1">
         <f t="shared" si="38"/>
-        <v>43823</v>
+        <v>43760</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
@@ -11652,7 +11643,7 @@
       </c>
       <c r="D628" s="1">
         <f t="shared" si="38"/>
-        <v>43830</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
@@ -11670,7 +11661,7 @@
       </c>
       <c r="D629" s="1">
         <f t="shared" si="38"/>
-        <v>43837</v>
+        <v>43774</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
@@ -11688,7 +11679,7 @@
       </c>
       <c r="D630" s="1">
         <f t="shared" si="38"/>
-        <v>43844</v>
+        <v>43781</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -11706,7 +11697,7 @@
       </c>
       <c r="D631" s="1">
         <f t="shared" si="38"/>
-        <v>43851</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
@@ -11724,7 +11715,7 @@
       </c>
       <c r="D632" s="1">
         <f t="shared" si="38"/>
-        <v>43858</v>
+        <v>43795</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
@@ -11742,7 +11733,7 @@
       </c>
       <c r="D633" s="1">
         <f t="shared" si="38"/>
-        <v>43865</v>
+        <v>43802</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
@@ -11760,7 +11751,7 @@
       </c>
       <c r="D634" s="1">
         <f t="shared" si="38"/>
-        <v>43872</v>
+        <v>43809</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
@@ -11778,7 +11769,7 @@
       </c>
       <c r="D635" s="1">
         <f t="shared" si="38"/>
-        <v>43879</v>
+        <v>43816</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
@@ -11796,7 +11787,7 @@
       </c>
       <c r="D636" s="1">
         <f t="shared" si="38"/>
-        <v>43886</v>
+        <v>43823</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
@@ -11814,7 +11805,7 @@
       </c>
       <c r="D637" s="1">
         <f t="shared" si="38"/>
-        <v>43893</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
@@ -11831,8 +11822,7 @@
         <v>20201</v>
       </c>
       <c r="D638" s="1">
-        <f t="shared" si="38"/>
-        <v>43900</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
@@ -11850,7 +11840,7 @@
       </c>
       <c r="D639" s="1">
         <f t="shared" si="38"/>
-        <v>43907</v>
+        <v>43838</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -11868,7 +11858,7 @@
       </c>
       <c r="D640" s="1">
         <f t="shared" si="38"/>
-        <v>43914</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
@@ -11886,7 +11876,7 @@
       </c>
       <c r="D641" s="1">
         <f t="shared" si="38"/>
-        <v>43921</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
@@ -11904,7 +11894,7 @@
       </c>
       <c r="D642" s="1">
         <f t="shared" si="38"/>
-        <v>43928</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -11922,7 +11912,7 @@
       </c>
       <c r="D643" s="1">
         <f t="shared" si="38"/>
-        <v>43935</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
@@ -11940,7 +11930,7 @@
       </c>
       <c r="D644" s="1">
         <f t="shared" ref="D644:D707" si="42">+D643+7</f>
-        <v>43942</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
@@ -11958,7 +11948,7 @@
       </c>
       <c r="D645" s="1">
         <f t="shared" si="42"/>
-        <v>43949</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
@@ -11976,7 +11966,7 @@
       </c>
       <c r="D646" s="1">
         <f t="shared" si="42"/>
-        <v>43956</v>
+        <v>43887</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
@@ -11994,7 +11984,7 @@
       </c>
       <c r="D647" s="1">
         <f t="shared" si="42"/>
-        <v>43963</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -12012,7 +12002,7 @@
       </c>
       <c r="D648" s="1">
         <f t="shared" si="42"/>
-        <v>43970</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -12030,7 +12020,7 @@
       </c>
       <c r="D649" s="1">
         <f t="shared" si="42"/>
-        <v>43977</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
@@ -12048,7 +12038,7 @@
       </c>
       <c r="D650" s="1">
         <f t="shared" si="42"/>
-        <v>43984</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
@@ -12066,7 +12056,7 @@
       </c>
       <c r="D651" s="1">
         <f t="shared" si="42"/>
-        <v>43991</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
@@ -12084,7 +12074,7 @@
       </c>
       <c r="D652" s="1">
         <f t="shared" si="42"/>
-        <v>43998</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
@@ -12102,7 +12092,7 @@
       </c>
       <c r="D653" s="1">
         <f t="shared" si="42"/>
-        <v>44005</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
@@ -12120,7 +12110,7 @@
       </c>
       <c r="D654" s="1">
         <f t="shared" si="42"/>
-        <v>44012</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
@@ -12138,7 +12128,7 @@
       </c>
       <c r="D655" s="1">
         <f t="shared" si="42"/>
-        <v>44019</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
@@ -12156,7 +12146,7 @@
       </c>
       <c r="D656" s="1">
         <f t="shared" si="42"/>
-        <v>44026</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
@@ -12174,7 +12164,7 @@
       </c>
       <c r="D657" s="1">
         <f t="shared" si="42"/>
-        <v>44033</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
@@ -12192,7 +12182,7 @@
       </c>
       <c r="D658" s="1">
         <f t="shared" si="42"/>
-        <v>44040</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
@@ -12210,7 +12200,7 @@
       </c>
       <c r="D659" s="1">
         <f t="shared" si="42"/>
-        <v>44047</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -12228,7 +12218,7 @@
       </c>
       <c r="D660" s="1">
         <f t="shared" si="42"/>
-        <v>44054</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
@@ -12246,7 +12236,7 @@
       </c>
       <c r="D661" s="1">
         <f t="shared" si="42"/>
-        <v>44061</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
@@ -12264,7 +12254,7 @@
       </c>
       <c r="D662" s="1">
         <f t="shared" si="42"/>
-        <v>44068</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
@@ -12282,7 +12272,7 @@
       </c>
       <c r="D663" s="1">
         <f t="shared" si="42"/>
-        <v>44075</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
@@ -12300,7 +12290,7 @@
       </c>
       <c r="D664" s="1">
         <f t="shared" si="42"/>
-        <v>44082</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
@@ -12318,7 +12308,7 @@
       </c>
       <c r="D665" s="1">
         <f t="shared" si="42"/>
-        <v>44089</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
@@ -12336,7 +12326,7 @@
       </c>
       <c r="D666" s="1">
         <f t="shared" si="42"/>
-        <v>44096</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
@@ -12354,7 +12344,7 @@
       </c>
       <c r="D667" s="1">
         <f t="shared" si="42"/>
-        <v>44103</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
@@ -12372,7 +12362,7 @@
       </c>
       <c r="D668" s="1">
         <f t="shared" si="42"/>
-        <v>44110</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
@@ -12390,7 +12380,7 @@
       </c>
       <c r="D669" s="1">
         <f t="shared" si="42"/>
-        <v>44117</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
@@ -12408,7 +12398,7 @@
       </c>
       <c r="D670" s="1">
         <f t="shared" si="42"/>
-        <v>44124</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
@@ -12426,7 +12416,7 @@
       </c>
       <c r="D671" s="1">
         <f t="shared" si="42"/>
-        <v>44131</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
@@ -12444,7 +12434,7 @@
       </c>
       <c r="D672" s="1">
         <f t="shared" si="42"/>
-        <v>44138</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
@@ -12462,7 +12452,7 @@
       </c>
       <c r="D673" s="1">
         <f t="shared" si="42"/>
-        <v>44145</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
@@ -12480,7 +12470,7 @@
       </c>
       <c r="D674" s="1">
         <f t="shared" si="42"/>
-        <v>44152</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
@@ -12498,7 +12488,7 @@
       </c>
       <c r="D675" s="1">
         <f t="shared" si="42"/>
-        <v>44159</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
@@ -12516,7 +12506,7 @@
       </c>
       <c r="D676" s="1">
         <f t="shared" si="42"/>
-        <v>44166</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
@@ -12534,7 +12524,7 @@
       </c>
       <c r="D677" s="1">
         <f t="shared" si="42"/>
-        <v>44173</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
@@ -12552,7 +12542,7 @@
       </c>
       <c r="D678" s="1">
         <f t="shared" si="42"/>
-        <v>44180</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
@@ -12570,7 +12560,7 @@
       </c>
       <c r="D679" s="1">
         <f t="shared" si="42"/>
-        <v>44187</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
@@ -12588,7 +12578,7 @@
       </c>
       <c r="D680" s="1">
         <f t="shared" si="42"/>
-        <v>44194</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
@@ -12606,7 +12596,7 @@
       </c>
       <c r="D681" s="1">
         <f t="shared" si="42"/>
-        <v>44201</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
@@ -12624,7 +12614,7 @@
       </c>
       <c r="D682" s="1">
         <f t="shared" si="42"/>
-        <v>44208</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
@@ -12642,7 +12632,7 @@
       </c>
       <c r="D683" s="1">
         <f t="shared" si="42"/>
-        <v>44215</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
@@ -12660,7 +12650,7 @@
       </c>
       <c r="D684" s="1">
         <f t="shared" si="42"/>
-        <v>44222</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
@@ -12678,7 +12668,7 @@
       </c>
       <c r="D685" s="1">
         <f t="shared" si="42"/>
-        <v>44229</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
@@ -12696,7 +12686,7 @@
       </c>
       <c r="D686" s="1">
         <f t="shared" si="42"/>
-        <v>44236</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
@@ -12714,7 +12704,7 @@
       </c>
       <c r="D687" s="1">
         <f t="shared" si="42"/>
-        <v>44243</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
@@ -12732,7 +12722,7 @@
       </c>
       <c r="D688" s="1">
         <f t="shared" si="42"/>
-        <v>44250</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
@@ -12750,7 +12740,7 @@
       </c>
       <c r="D689" s="1">
         <f t="shared" si="42"/>
-        <v>44257</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
@@ -12768,7 +12758,7 @@
       </c>
       <c r="D690" s="1">
         <f t="shared" si="42"/>
-        <v>44264</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
@@ -12785,8 +12775,7 @@
         <v>20211</v>
       </c>
       <c r="D691" s="1">
-        <f t="shared" si="42"/>
-        <v>44271</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
@@ -12804,7 +12793,7 @@
       </c>
       <c r="D692" s="1">
         <f t="shared" si="42"/>
-        <v>44278</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
@@ -12822,7 +12811,7 @@
       </c>
       <c r="D693" s="1">
         <f t="shared" si="42"/>
-        <v>44285</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
@@ -12840,7 +12829,7 @@
       </c>
       <c r="D694" s="1">
         <f t="shared" si="42"/>
-        <v>44292</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
@@ -12858,7 +12847,7 @@
       </c>
       <c r="D695" s="1">
         <f t="shared" si="42"/>
-        <v>44299</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
@@ -12876,7 +12865,7 @@
       </c>
       <c r="D696" s="1">
         <f t="shared" si="42"/>
-        <v>44306</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
@@ -12894,7 +12883,7 @@
       </c>
       <c r="D697" s="1">
         <f t="shared" si="42"/>
-        <v>44313</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
@@ -12912,7 +12901,7 @@
       </c>
       <c r="D698" s="1">
         <f t="shared" si="42"/>
-        <v>44320</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
@@ -12930,7 +12919,7 @@
       </c>
       <c r="D699" s="1">
         <f t="shared" si="42"/>
-        <v>44327</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
@@ -12948,7 +12937,7 @@
       </c>
       <c r="D700" s="1">
         <f t="shared" si="42"/>
-        <v>44334</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
@@ -12966,7 +12955,7 @@
       </c>
       <c r="D701" s="1">
         <f t="shared" si="42"/>
-        <v>44341</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
@@ -12984,7 +12973,7 @@
       </c>
       <c r="D702" s="1">
         <f t="shared" si="42"/>
-        <v>44348</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
@@ -13002,7 +12991,7 @@
       </c>
       <c r="D703" s="1">
         <f t="shared" si="42"/>
-        <v>44355</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
@@ -13020,7 +13009,7 @@
       </c>
       <c r="D704" s="1">
         <f t="shared" si="42"/>
-        <v>44362</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
@@ -13038,7 +13027,7 @@
       </c>
       <c r="D705" s="1">
         <f t="shared" si="42"/>
-        <v>44369</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
@@ -13056,7 +13045,7 @@
       </c>
       <c r="D706" s="1">
         <f t="shared" si="42"/>
-        <v>44376</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
@@ -13074,7 +13063,7 @@
       </c>
       <c r="D707" s="1">
         <f t="shared" si="42"/>
-        <v>44383</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
@@ -13092,7 +13081,7 @@
       </c>
       <c r="D708" s="1">
         <f t="shared" ref="D708:D771" si="46">+D707+7</f>
-        <v>44390</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
@@ -13110,7 +13099,7 @@
       </c>
       <c r="D709" s="1">
         <f t="shared" si="46"/>
-        <v>44397</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
@@ -13128,7 +13117,7 @@
       </c>
       <c r="D710" s="1">
         <f t="shared" si="46"/>
-        <v>44404</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
@@ -13146,7 +13135,7 @@
       </c>
       <c r="D711" s="1">
         <f t="shared" si="46"/>
-        <v>44411</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
@@ -13164,7 +13153,7 @@
       </c>
       <c r="D712" s="1">
         <f t="shared" si="46"/>
-        <v>44418</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
@@ -13182,7 +13171,7 @@
       </c>
       <c r="D713" s="1">
         <f t="shared" si="46"/>
-        <v>44425</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
@@ -13200,7 +13189,7 @@
       </c>
       <c r="D714" s="1">
         <f t="shared" si="46"/>
-        <v>44432</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
@@ -13218,7 +13207,7 @@
       </c>
       <c r="D715" s="1">
         <f t="shared" si="46"/>
-        <v>44439</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
@@ -13236,7 +13225,7 @@
       </c>
       <c r="D716" s="1">
         <f t="shared" si="46"/>
-        <v>44446</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
@@ -13254,7 +13243,7 @@
       </c>
       <c r="D717" s="1">
         <f t="shared" si="46"/>
-        <v>44453</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
@@ -13272,7 +13261,7 @@
       </c>
       <c r="D718" s="1">
         <f t="shared" si="46"/>
-        <v>44460</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
@@ -13290,7 +13279,7 @@
       </c>
       <c r="D719" s="1">
         <f t="shared" si="46"/>
-        <v>44467</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
@@ -13308,7 +13297,7 @@
       </c>
       <c r="D720" s="1">
         <f t="shared" si="46"/>
-        <v>44474</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
@@ -13326,7 +13315,7 @@
       </c>
       <c r="D721" s="1">
         <f t="shared" si="46"/>
-        <v>44481</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
@@ -13344,7 +13333,7 @@
       </c>
       <c r="D722" s="1">
         <f t="shared" si="46"/>
-        <v>44488</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
@@ -13362,7 +13351,7 @@
       </c>
       <c r="D723" s="1">
         <f t="shared" si="46"/>
-        <v>44495</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
@@ -13380,7 +13369,7 @@
       </c>
       <c r="D724" s="1">
         <f t="shared" si="46"/>
-        <v>44502</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
@@ -13398,7 +13387,7 @@
       </c>
       <c r="D725" s="1">
         <f t="shared" si="46"/>
-        <v>44509</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
@@ -13416,7 +13405,7 @@
       </c>
       <c r="D726" s="1">
         <f t="shared" si="46"/>
-        <v>44516</v>
+        <v>44442</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
@@ -13434,7 +13423,7 @@
       </c>
       <c r="D727" s="1">
         <f t="shared" si="46"/>
-        <v>44523</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
@@ -13452,7 +13441,7 @@
       </c>
       <c r="D728" s="1">
         <f t="shared" si="46"/>
-        <v>44530</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
@@ -13470,7 +13459,7 @@
       </c>
       <c r="D729" s="1">
         <f t="shared" si="46"/>
-        <v>44537</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
@@ -13488,7 +13477,7 @@
       </c>
       <c r="D730" s="1">
         <f t="shared" si="46"/>
-        <v>44544</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
@@ -13506,7 +13495,7 @@
       </c>
       <c r="D731" s="1">
         <f t="shared" si="46"/>
-        <v>44551</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
@@ -13524,7 +13513,7 @@
       </c>
       <c r="D732" s="1">
         <f t="shared" si="46"/>
-        <v>44558</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
@@ -13542,7 +13531,7 @@
       </c>
       <c r="D733" s="1">
         <f t="shared" si="46"/>
-        <v>44565</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
@@ -13560,7 +13549,7 @@
       </c>
       <c r="D734" s="1">
         <f t="shared" si="46"/>
-        <v>44572</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
@@ -13578,7 +13567,7 @@
       </c>
       <c r="D735" s="1">
         <f t="shared" si="46"/>
-        <v>44579</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
@@ -13596,7 +13585,7 @@
       </c>
       <c r="D736" s="1">
         <f t="shared" si="46"/>
-        <v>44586</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
@@ -13614,7 +13603,7 @@
       </c>
       <c r="D737" s="1">
         <f t="shared" si="46"/>
-        <v>44593</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
@@ -13632,7 +13621,7 @@
       </c>
       <c r="D738" s="1">
         <f t="shared" si="46"/>
-        <v>44600</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
@@ -13650,7 +13639,7 @@
       </c>
       <c r="D739" s="1">
         <f t="shared" si="46"/>
-        <v>44607</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
@@ -13668,7 +13657,7 @@
       </c>
       <c r="D740" s="1">
         <f t="shared" si="46"/>
-        <v>44614</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
@@ -13686,7 +13675,7 @@
       </c>
       <c r="D741" s="1">
         <f t="shared" si="46"/>
-        <v>44621</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
@@ -13704,7 +13693,7 @@
       </c>
       <c r="D742" s="1">
         <f t="shared" si="46"/>
-        <v>44628</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
@@ -13722,7 +13711,7 @@
       </c>
       <c r="D743" s="1">
         <f t="shared" si="46"/>
-        <v>44635</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
@@ -13739,8 +13728,7 @@
         <v>20221</v>
       </c>
       <c r="D744" s="1">
-        <f t="shared" si="46"/>
-        <v>44642</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
@@ -13758,7 +13746,7 @@
       </c>
       <c r="D745" s="1">
         <f t="shared" si="46"/>
-        <v>44649</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
@@ -13776,7 +13764,7 @@
       </c>
       <c r="D746" s="1">
         <f t="shared" si="46"/>
-        <v>44656</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
@@ -13794,7 +13782,7 @@
       </c>
       <c r="D747" s="1">
         <f t="shared" si="46"/>
-        <v>44663</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
@@ -13812,7 +13800,7 @@
       </c>
       <c r="D748" s="1">
         <f t="shared" si="46"/>
-        <v>44670</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
@@ -13830,7 +13818,7 @@
       </c>
       <c r="D749" s="1">
         <f t="shared" si="46"/>
-        <v>44677</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
@@ -13848,7 +13836,7 @@
       </c>
       <c r="D750" s="1">
         <f t="shared" si="46"/>
-        <v>44684</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
@@ -13866,7 +13854,7 @@
       </c>
       <c r="D751" s="1">
         <f t="shared" si="46"/>
-        <v>44691</v>
+        <v>44611</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
@@ -13884,7 +13872,7 @@
       </c>
       <c r="D752" s="1">
         <f t="shared" si="46"/>
-        <v>44698</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
@@ -13902,7 +13890,7 @@
       </c>
       <c r="D753" s="1">
         <f t="shared" si="46"/>
-        <v>44705</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
@@ -13920,7 +13908,7 @@
       </c>
       <c r="D754" s="1">
         <f t="shared" si="46"/>
-        <v>44712</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
@@ -13938,7 +13926,7 @@
       </c>
       <c r="D755" s="1">
         <f t="shared" si="46"/>
-        <v>44719</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
@@ -13956,7 +13944,7 @@
       </c>
       <c r="D756" s="1">
         <f t="shared" si="46"/>
-        <v>44726</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
@@ -13974,7 +13962,7 @@
       </c>
       <c r="D757" s="1">
         <f t="shared" si="46"/>
-        <v>44733</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
@@ -13992,7 +13980,7 @@
       </c>
       <c r="D758" s="1">
         <f t="shared" si="46"/>
-        <v>44740</v>
+        <v>44660</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
@@ -14010,7 +13998,7 @@
       </c>
       <c r="D759" s="1">
         <f t="shared" si="46"/>
-        <v>44747</v>
+        <v>44667</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
@@ -14028,7 +14016,7 @@
       </c>
       <c r="D760" s="1">
         <f t="shared" si="46"/>
-        <v>44754</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
@@ -14046,7 +14034,7 @@
       </c>
       <c r="D761" s="1">
         <f t="shared" si="46"/>
-        <v>44761</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
@@ -14064,7 +14052,7 @@
       </c>
       <c r="D762" s="1">
         <f t="shared" si="46"/>
-        <v>44768</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
@@ -14082,7 +14070,7 @@
       </c>
       <c r="D763" s="1">
         <f t="shared" si="46"/>
-        <v>44775</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
@@ -14100,7 +14088,7 @@
       </c>
       <c r="D764" s="1">
         <f t="shared" si="46"/>
-        <v>44782</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
@@ -14118,7 +14106,7 @@
       </c>
       <c r="D765" s="1">
         <f t="shared" si="46"/>
-        <v>44789</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
@@ -14136,7 +14124,7 @@
       </c>
       <c r="D766" s="1">
         <f t="shared" si="46"/>
-        <v>44796</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
@@ -14154,7 +14142,7 @@
       </c>
       <c r="D767" s="1">
         <f t="shared" si="46"/>
-        <v>44803</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
@@ -14172,7 +14160,7 @@
       </c>
       <c r="D768" s="1">
         <f t="shared" si="46"/>
-        <v>44810</v>
+        <v>44730</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
@@ -14190,7 +14178,7 @@
       </c>
       <c r="D769" s="1">
         <f t="shared" si="46"/>
-        <v>44817</v>
+        <v>44737</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
@@ -14208,7 +14196,7 @@
       </c>
       <c r="D770" s="1">
         <f t="shared" si="46"/>
-        <v>44824</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
@@ -14226,7 +14214,7 @@
       </c>
       <c r="D771" s="1">
         <f t="shared" si="46"/>
-        <v>44831</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
@@ -14244,7 +14232,7 @@
       </c>
       <c r="D772" s="1">
         <f t="shared" ref="D772:D835" si="50">+D771+7</f>
-        <v>44838</v>
+        <v>44758</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
@@ -14262,7 +14250,7 @@
       </c>
       <c r="D773" s="1">
         <f t="shared" si="50"/>
-        <v>44845</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
@@ -14280,7 +14268,7 @@
       </c>
       <c r="D774" s="1">
         <f t="shared" si="50"/>
-        <v>44852</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
@@ -14298,7 +14286,7 @@
       </c>
       <c r="D775" s="1">
         <f t="shared" si="50"/>
-        <v>44859</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
@@ -14316,7 +14304,7 @@
       </c>
       <c r="D776" s="1">
         <f t="shared" si="50"/>
-        <v>44866</v>
+        <v>44786</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
@@ -14334,7 +14322,7 @@
       </c>
       <c r="D777" s="1">
         <f t="shared" si="50"/>
-        <v>44873</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
@@ -14352,7 +14340,7 @@
       </c>
       <c r="D778" s="1">
         <f t="shared" si="50"/>
-        <v>44880</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
@@ -14370,7 +14358,7 @@
       </c>
       <c r="D779" s="1">
         <f t="shared" si="50"/>
-        <v>44887</v>
+        <v>44807</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
@@ -14388,7 +14376,7 @@
       </c>
       <c r="D780" s="1">
         <f t="shared" si="50"/>
-        <v>44894</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
@@ -14406,7 +14394,7 @@
       </c>
       <c r="D781" s="1">
         <f t="shared" si="50"/>
-        <v>44901</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
@@ -14424,7 +14412,7 @@
       </c>
       <c r="D782" s="1">
         <f t="shared" si="50"/>
-        <v>44908</v>
+        <v>44828</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
@@ -14442,7 +14430,7 @@
       </c>
       <c r="D783" s="1">
         <f t="shared" si="50"/>
-        <v>44915</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
@@ -14460,7 +14448,7 @@
       </c>
       <c r="D784" s="1">
         <f t="shared" si="50"/>
-        <v>44922</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
@@ -14478,7 +14466,7 @@
       </c>
       <c r="D785" s="1">
         <f t="shared" si="50"/>
-        <v>44929</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
@@ -14496,7 +14484,7 @@
       </c>
       <c r="D786" s="1">
         <f t="shared" si="50"/>
-        <v>44936</v>
+        <v>44856</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
@@ -14514,7 +14502,7 @@
       </c>
       <c r="D787" s="1">
         <f t="shared" si="50"/>
-        <v>44943</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
@@ -14532,7 +14520,7 @@
       </c>
       <c r="D788" s="1">
         <f t="shared" si="50"/>
-        <v>44950</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
@@ -14550,7 +14538,7 @@
       </c>
       <c r="D789" s="1">
         <f t="shared" si="50"/>
-        <v>44957</v>
+        <v>44877</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
@@ -14568,7 +14556,7 @@
       </c>
       <c r="D790" s="1">
         <f t="shared" si="50"/>
-        <v>44964</v>
+        <v>44884</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
@@ -14586,7 +14574,7 @@
       </c>
       <c r="D791" s="1">
         <f t="shared" si="50"/>
-        <v>44971</v>
+        <v>44891</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
@@ -14604,7 +14592,7 @@
       </c>
       <c r="D792" s="1">
         <f t="shared" si="50"/>
-        <v>44978</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
@@ -14622,7 +14610,7 @@
       </c>
       <c r="D793" s="1">
         <f t="shared" si="50"/>
-        <v>44985</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
@@ -14640,7 +14628,7 @@
       </c>
       <c r="D794" s="1">
         <f t="shared" si="50"/>
-        <v>44992</v>
+        <v>44912</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
@@ -14658,7 +14646,7 @@
       </c>
       <c r="D795" s="1">
         <f t="shared" si="50"/>
-        <v>44999</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
@@ -14676,7 +14664,7 @@
       </c>
       <c r="D796" s="1">
         <f t="shared" si="50"/>
-        <v>45006</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
@@ -14693,8 +14681,7 @@
         <v>20231</v>
       </c>
       <c r="D797" s="1">
-        <f t="shared" si="50"/>
-        <v>45013</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
@@ -14712,7 +14699,7 @@
       </c>
       <c r="D798" s="1">
         <f t="shared" si="50"/>
-        <v>45020</v>
+        <v>44934</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
@@ -14730,7 +14717,7 @@
       </c>
       <c r="D799" s="1">
         <f t="shared" si="50"/>
-        <v>45027</v>
+        <v>44941</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
@@ -14748,7 +14735,7 @@
       </c>
       <c r="D800" s="1">
         <f t="shared" si="50"/>
-        <v>45034</v>
+        <v>44948</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
@@ -14766,7 +14753,7 @@
       </c>
       <c r="D801" s="1">
         <f t="shared" si="50"/>
-        <v>45041</v>
+        <v>44955</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
@@ -14784,7 +14771,7 @@
       </c>
       <c r="D802" s="1">
         <f t="shared" si="50"/>
-        <v>45048</v>
+        <v>44962</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
@@ -14802,7 +14789,7 @@
       </c>
       <c r="D803" s="1">
         <f t="shared" si="50"/>
-        <v>45055</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
@@ -14820,7 +14807,7 @@
       </c>
       <c r="D804" s="1">
         <f t="shared" si="50"/>
-        <v>45062</v>
+        <v>44976</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
@@ -14838,7 +14825,7 @@
       </c>
       <c r="D805" s="1">
         <f t="shared" si="50"/>
-        <v>45069</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
@@ -14856,7 +14843,7 @@
       </c>
       <c r="D806" s="1">
         <f t="shared" si="50"/>
-        <v>45076</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
@@ -14874,7 +14861,7 @@
       </c>
       <c r="D807" s="1">
         <f t="shared" si="50"/>
-        <v>45083</v>
+        <v>44997</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
@@ -14892,7 +14879,7 @@
       </c>
       <c r="D808" s="1">
         <f t="shared" si="50"/>
-        <v>45090</v>
+        <v>45004</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
@@ -14910,7 +14897,7 @@
       </c>
       <c r="D809" s="1">
         <f t="shared" si="50"/>
-        <v>45097</v>
+        <v>45011</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
@@ -14928,7 +14915,7 @@
       </c>
       <c r="D810" s="1">
         <f t="shared" si="50"/>
-        <v>45104</v>
+        <v>45018</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
@@ -14946,7 +14933,7 @@
       </c>
       <c r="D811" s="1">
         <f t="shared" si="50"/>
-        <v>45111</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
@@ -14964,7 +14951,7 @@
       </c>
       <c r="D812" s="1">
         <f t="shared" si="50"/>
-        <v>45118</v>
+        <v>45032</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
@@ -14982,7 +14969,7 @@
       </c>
       <c r="D813" s="1">
         <f t="shared" si="50"/>
-        <v>45125</v>
+        <v>45039</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
@@ -15000,7 +14987,7 @@
       </c>
       <c r="D814" s="1">
         <f t="shared" si="50"/>
-        <v>45132</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
@@ -15018,7 +15005,7 @@
       </c>
       <c r="D815" s="1">
         <f t="shared" si="50"/>
-        <v>45139</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
@@ -15036,7 +15023,7 @@
       </c>
       <c r="D816" s="1">
         <f t="shared" si="50"/>
-        <v>45146</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
@@ -15054,7 +15041,7 @@
       </c>
       <c r="D817" s="1">
         <f t="shared" si="50"/>
-        <v>45153</v>
+        <v>45067</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
@@ -15072,7 +15059,7 @@
       </c>
       <c r="D818" s="1">
         <f t="shared" si="50"/>
-        <v>45160</v>
+        <v>45074</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
@@ -15090,7 +15077,7 @@
       </c>
       <c r="D819" s="1">
         <f t="shared" si="50"/>
-        <v>45167</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
@@ -15108,7 +15095,7 @@
       </c>
       <c r="D820" s="1">
         <f t="shared" si="50"/>
-        <v>45174</v>
+        <v>45088</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
@@ -15126,7 +15113,7 @@
       </c>
       <c r="D821" s="1">
         <f t="shared" si="50"/>
-        <v>45181</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
@@ -15144,7 +15131,7 @@
       </c>
       <c r="D822" s="1">
         <f t="shared" si="50"/>
-        <v>45188</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
@@ -15162,7 +15149,7 @@
       </c>
       <c r="D823" s="1">
         <f t="shared" si="50"/>
-        <v>45195</v>
+        <v>45109</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
@@ -15180,7 +15167,7 @@
       </c>
       <c r="D824" s="1">
         <f t="shared" si="50"/>
-        <v>45202</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
@@ -15198,7 +15185,7 @@
       </c>
       <c r="D825" s="1">
         <f t="shared" si="50"/>
-        <v>45209</v>
+        <v>45123</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
@@ -15216,7 +15203,7 @@
       </c>
       <c r="D826" s="1">
         <f t="shared" si="50"/>
-        <v>45216</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
@@ -15234,7 +15221,7 @@
       </c>
       <c r="D827" s="1">
         <f t="shared" si="50"/>
-        <v>45223</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
@@ -15252,7 +15239,7 @@
       </c>
       <c r="D828" s="1">
         <f t="shared" si="50"/>
-        <v>45230</v>
+        <v>45144</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
@@ -15270,7 +15257,7 @@
       </c>
       <c r="D829" s="1">
         <f t="shared" si="50"/>
-        <v>45237</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
@@ -15288,7 +15275,7 @@
       </c>
       <c r="D830" s="1">
         <f t="shared" si="50"/>
-        <v>45244</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
@@ -15306,7 +15293,7 @@
       </c>
       <c r="D831" s="1">
         <f t="shared" si="50"/>
-        <v>45251</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
@@ -15324,7 +15311,7 @@
       </c>
       <c r="D832" s="1">
         <f t="shared" si="50"/>
-        <v>45258</v>
+        <v>45172</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
@@ -15342,7 +15329,7 @@
       </c>
       <c r="D833" s="1">
         <f t="shared" si="50"/>
-        <v>45265</v>
+        <v>45179</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
@@ -15360,7 +15347,7 @@
       </c>
       <c r="D834" s="1">
         <f t="shared" si="50"/>
-        <v>45272</v>
+        <v>45186</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
@@ -15378,7 +15365,7 @@
       </c>
       <c r="D835" s="1">
         <f t="shared" si="50"/>
-        <v>45279</v>
+        <v>45193</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
@@ -15396,7 +15383,7 @@
       </c>
       <c r="D836" s="1">
         <f t="shared" ref="D836:D899" si="54">+D835+7</f>
-        <v>45286</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
@@ -15414,7 +15401,7 @@
       </c>
       <c r="D837" s="1">
         <f t="shared" si="54"/>
-        <v>45293</v>
+        <v>45207</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
@@ -15432,7 +15419,7 @@
       </c>
       <c r="D838" s="1">
         <f t="shared" si="54"/>
-        <v>45300</v>
+        <v>45214</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
@@ -15450,7 +15437,7 @@
       </c>
       <c r="D839" s="1">
         <f t="shared" si="54"/>
-        <v>45307</v>
+        <v>45221</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
@@ -15468,7 +15455,7 @@
       </c>
       <c r="D840" s="1">
         <f t="shared" si="54"/>
-        <v>45314</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
@@ -15486,7 +15473,7 @@
       </c>
       <c r="D841" s="1">
         <f t="shared" si="54"/>
-        <v>45321</v>
+        <v>45235</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
@@ -15504,7 +15491,7 @@
       </c>
       <c r="D842" s="1">
         <f t="shared" si="54"/>
-        <v>45328</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
@@ -15522,7 +15509,7 @@
       </c>
       <c r="D843" s="1">
         <f t="shared" si="54"/>
-        <v>45335</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
@@ -15540,7 +15527,7 @@
       </c>
       <c r="D844" s="1">
         <f t="shared" si="54"/>
-        <v>45342</v>
+        <v>45256</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
@@ -15558,7 +15545,7 @@
       </c>
       <c r="D845" s="1">
         <f t="shared" si="54"/>
-        <v>45349</v>
+        <v>45263</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
@@ -15576,7 +15563,7 @@
       </c>
       <c r="D846" s="1">
         <f t="shared" si="54"/>
-        <v>45356</v>
+        <v>45270</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
@@ -15594,7 +15581,7 @@
       </c>
       <c r="D847" s="1">
         <f t="shared" si="54"/>
-        <v>45363</v>
+        <v>45277</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
@@ -15612,7 +15599,7 @@
       </c>
       <c r="D848" s="1">
         <f t="shared" si="54"/>
-        <v>45370</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
@@ -15630,7 +15617,7 @@
       </c>
       <c r="D849" s="1">
         <f t="shared" si="54"/>
-        <v>45377</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
@@ -15647,8 +15634,7 @@
         <v>20241</v>
       </c>
       <c r="D850" s="1">
-        <f t="shared" si="54"/>
-        <v>45384</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
@@ -15666,7 +15652,7 @@
       </c>
       <c r="D851" s="1">
         <f t="shared" si="54"/>
-        <v>45391</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
@@ -15684,7 +15670,7 @@
       </c>
       <c r="D852" s="1">
         <f t="shared" si="54"/>
-        <v>45398</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
@@ -15702,7 +15688,7 @@
       </c>
       <c r="D853" s="1">
         <f t="shared" si="54"/>
-        <v>45405</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
@@ -15720,7 +15706,7 @@
       </c>
       <c r="D854" s="1">
         <f t="shared" si="54"/>
-        <v>45412</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
@@ -15738,7 +15724,7 @@
       </c>
       <c r="D855" s="1">
         <f t="shared" si="54"/>
-        <v>45419</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
@@ -15756,7 +15742,7 @@
       </c>
       <c r="D856" s="1">
         <f t="shared" si="54"/>
-        <v>45426</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
@@ -15774,7 +15760,7 @@
       </c>
       <c r="D857" s="1">
         <f t="shared" si="54"/>
-        <v>45433</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
@@ -15792,7 +15778,7 @@
       </c>
       <c r="D858" s="1">
         <f t="shared" si="54"/>
-        <v>45440</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
@@ -15810,7 +15796,7 @@
       </c>
       <c r="D859" s="1">
         <f t="shared" si="54"/>
-        <v>45447</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
@@ -15828,7 +15814,7 @@
       </c>
       <c r="D860" s="1">
         <f t="shared" si="54"/>
-        <v>45454</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
@@ -15846,7 +15832,7 @@
       </c>
       <c r="D861" s="1">
         <f t="shared" si="54"/>
-        <v>45461</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
@@ -15864,7 +15850,7 @@
       </c>
       <c r="D862" s="1">
         <f t="shared" si="54"/>
-        <v>45468</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
@@ -15882,7 +15868,7 @@
       </c>
       <c r="D863" s="1">
         <f t="shared" si="54"/>
-        <v>45475</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
@@ -15900,7 +15886,7 @@
       </c>
       <c r="D864" s="1">
         <f t="shared" si="54"/>
-        <v>45482</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
@@ -15918,7 +15904,7 @@
       </c>
       <c r="D865" s="1">
         <f t="shared" si="54"/>
-        <v>45489</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
@@ -15936,7 +15922,7 @@
       </c>
       <c r="D866" s="1">
         <f t="shared" si="54"/>
-        <v>45496</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
@@ -15954,7 +15940,7 @@
       </c>
       <c r="D867" s="1">
         <f t="shared" si="54"/>
-        <v>45503</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
@@ -15972,7 +15958,7 @@
       </c>
       <c r="D868" s="1">
         <f t="shared" si="54"/>
-        <v>45510</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
@@ -15990,7 +15976,7 @@
       </c>
       <c r="D869" s="1">
         <f t="shared" si="54"/>
-        <v>45517</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
@@ -16008,7 +15994,7 @@
       </c>
       <c r="D870" s="1">
         <f t="shared" si="54"/>
-        <v>45524</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
@@ -16026,7 +16012,7 @@
       </c>
       <c r="D871" s="1">
         <f t="shared" si="54"/>
-        <v>45531</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
@@ -16044,7 +16030,7 @@
       </c>
       <c r="D872" s="1">
         <f t="shared" si="54"/>
-        <v>45538</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
@@ -16062,7 +16048,7 @@
       </c>
       <c r="D873" s="1">
         <f t="shared" si="54"/>
-        <v>45545</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
@@ -16080,7 +16066,7 @@
       </c>
       <c r="D874" s="1">
         <f t="shared" si="54"/>
-        <v>45552</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.3">
@@ -16098,7 +16084,7 @@
       </c>
       <c r="D875" s="1">
         <f t="shared" si="54"/>
-        <v>45559</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.3">
@@ -16116,7 +16102,7 @@
       </c>
       <c r="D876" s="1">
         <f t="shared" si="54"/>
-        <v>45566</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.3">
@@ -16134,7 +16120,7 @@
       </c>
       <c r="D877" s="1">
         <f t="shared" si="54"/>
-        <v>45573</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.3">
@@ -16152,7 +16138,7 @@
       </c>
       <c r="D878" s="1">
         <f t="shared" si="54"/>
-        <v>45580</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.3">
@@ -16170,7 +16156,7 @@
       </c>
       <c r="D879" s="1">
         <f t="shared" si="54"/>
-        <v>45587</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.3">
@@ -16188,7 +16174,7 @@
       </c>
       <c r="D880" s="1">
         <f t="shared" si="54"/>
-        <v>45594</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
@@ -16206,7 +16192,7 @@
       </c>
       <c r="D881" s="1">
         <f t="shared" si="54"/>
-        <v>45601</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.3">
@@ -16224,7 +16210,7 @@
       </c>
       <c r="D882" s="1">
         <f t="shared" si="54"/>
-        <v>45608</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
@@ -16242,7 +16228,7 @@
       </c>
       <c r="D883" s="1">
         <f t="shared" si="54"/>
-        <v>45615</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.3">
@@ -16260,7 +16246,7 @@
       </c>
       <c r="D884" s="1">
         <f t="shared" si="54"/>
-        <v>45622</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
@@ -16278,7 +16264,7 @@
       </c>
       <c r="D885" s="1">
         <f t="shared" si="54"/>
-        <v>45629</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.3">
@@ -16296,7 +16282,7 @@
       </c>
       <c r="D886" s="1">
         <f t="shared" si="54"/>
-        <v>45636</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.3">
@@ -16314,7 +16300,7 @@
       </c>
       <c r="D887" s="1">
         <f t="shared" si="54"/>
-        <v>45643</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.3">
@@ -16332,7 +16318,7 @@
       </c>
       <c r="D888" s="1">
         <f t="shared" si="54"/>
-        <v>45650</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.3">
@@ -16350,7 +16336,7 @@
       </c>
       <c r="D889" s="1">
         <f t="shared" si="54"/>
-        <v>45657</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.3">
@@ -16368,7 +16354,7 @@
       </c>
       <c r="D890" s="1">
         <f t="shared" si="54"/>
-        <v>45664</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.3">
@@ -16386,7 +16372,7 @@
       </c>
       <c r="D891" s="1">
         <f t="shared" si="54"/>
-        <v>45671</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.3">
@@ -16404,7 +16390,7 @@
       </c>
       <c r="D892" s="1">
         <f t="shared" si="54"/>
-        <v>45678</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.3">
@@ -16422,7 +16408,7 @@
       </c>
       <c r="D893" s="1">
         <f t="shared" si="54"/>
-        <v>45685</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.3">
@@ -16440,7 +16426,7 @@
       </c>
       <c r="D894" s="1">
         <f t="shared" si="54"/>
-        <v>45692</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.3">
@@ -16458,7 +16444,7 @@
       </c>
       <c r="D895" s="1">
         <f t="shared" si="54"/>
-        <v>45699</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
@@ -16476,7 +16462,7 @@
       </c>
       <c r="D896" s="1">
         <f t="shared" si="54"/>
-        <v>45706</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.3">
@@ -16494,7 +16480,7 @@
       </c>
       <c r="D897" s="1">
         <f t="shared" si="54"/>
-        <v>45713</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.3">
@@ -16512,7 +16498,7 @@
       </c>
       <c r="D898" s="1">
         <f t="shared" si="54"/>
-        <v>45720</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.3">
@@ -16530,7 +16516,7 @@
       </c>
       <c r="D899" s="1">
         <f t="shared" si="54"/>
-        <v>45727</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.3">
@@ -16548,7 +16534,7 @@
       </c>
       <c r="D900" s="1">
         <f t="shared" ref="D900:D937" si="58">+D899+7</f>
-        <v>45734</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
@@ -16566,7 +16552,7 @@
       </c>
       <c r="D901" s="1">
         <f t="shared" si="58"/>
-        <v>45741</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
@@ -16584,7 +16570,7 @@
       </c>
       <c r="D902" s="1">
         <f t="shared" si="58"/>
-        <v>45748</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
@@ -16601,8 +16587,7 @@
         <v>20251</v>
       </c>
       <c r="D903" s="1">
-        <f t="shared" si="58"/>
-        <v>45755</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
@@ -16620,7 +16605,7 @@
       </c>
       <c r="D904" s="1">
         <f t="shared" si="58"/>
-        <v>45762</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
@@ -16638,7 +16623,7 @@
       </c>
       <c r="D905" s="1">
         <f t="shared" si="58"/>
-        <v>45769</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
@@ -16656,7 +16641,7 @@
       </c>
       <c r="D906" s="1">
         <f t="shared" si="58"/>
-        <v>45776</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
@@ -16674,7 +16659,7 @@
       </c>
       <c r="D907" s="1">
         <f t="shared" si="58"/>
-        <v>45783</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
@@ -16692,7 +16677,7 @@
       </c>
       <c r="D908" s="1">
         <f t="shared" si="58"/>
-        <v>45790</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
@@ -16710,7 +16695,7 @@
       </c>
       <c r="D909" s="1">
         <f t="shared" si="58"/>
-        <v>45797</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
@@ -16728,7 +16713,7 @@
       </c>
       <c r="D910" s="1">
         <f t="shared" si="58"/>
-        <v>45804</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
@@ -16746,7 +16731,7 @@
       </c>
       <c r="D911" s="1">
         <f t="shared" si="58"/>
-        <v>45811</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
@@ -16764,7 +16749,7 @@
       </c>
       <c r="D912" s="1">
         <f t="shared" si="58"/>
-        <v>45818</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
@@ -16782,7 +16767,7 @@
       </c>
       <c r="D913" s="1">
         <f t="shared" si="58"/>
-        <v>45825</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
@@ -16800,7 +16785,7 @@
       </c>
       <c r="D914" s="1">
         <f t="shared" si="58"/>
-        <v>45832</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
@@ -16818,7 +16803,7 @@
       </c>
       <c r="D915" s="1">
         <f t="shared" si="58"/>
-        <v>45839</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
@@ -16836,7 +16821,7 @@
       </c>
       <c r="D916" s="1">
         <f t="shared" si="58"/>
-        <v>45846</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
@@ -16854,7 +16839,7 @@
       </c>
       <c r="D917" s="1">
         <f t="shared" si="58"/>
-        <v>45853</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
@@ -16872,7 +16857,7 @@
       </c>
       <c r="D918" s="1">
         <f t="shared" si="58"/>
-        <v>45860</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
@@ -16890,7 +16875,7 @@
       </c>
       <c r="D919" s="1">
         <f t="shared" si="58"/>
-        <v>45867</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
@@ -16908,7 +16893,7 @@
       </c>
       <c r="D920" s="1">
         <f t="shared" si="58"/>
-        <v>45874</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
@@ -16926,7 +16911,7 @@
       </c>
       <c r="D921" s="1">
         <f t="shared" si="58"/>
-        <v>45881</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
@@ -16944,7 +16929,7 @@
       </c>
       <c r="D922" s="1">
         <f t="shared" si="58"/>
-        <v>45888</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
@@ -16962,7 +16947,7 @@
       </c>
       <c r="D923" s="1">
         <f t="shared" si="58"/>
-        <v>45895</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
@@ -16980,7 +16965,7 @@
       </c>
       <c r="D924" s="1">
         <f t="shared" si="58"/>
-        <v>45902</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
@@ -16998,7 +16983,7 @@
       </c>
       <c r="D925" s="1">
         <f t="shared" si="58"/>
-        <v>45909</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.3">
@@ -17016,7 +17001,7 @@
       </c>
       <c r="D926" s="1">
         <f t="shared" si="58"/>
-        <v>45916</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.3">
@@ -17034,7 +17019,7 @@
       </c>
       <c r="D927" s="1">
         <f t="shared" si="58"/>
-        <v>45923</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.3">
@@ -17052,7 +17037,7 @@
       </c>
       <c r="D928" s="1">
         <f t="shared" si="58"/>
-        <v>45930</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.3">
@@ -17070,7 +17055,7 @@
       </c>
       <c r="D929" s="1">
         <f t="shared" si="58"/>
-        <v>45937</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.3">
@@ -17088,7 +17073,7 @@
       </c>
       <c r="D930" s="1">
         <f t="shared" si="58"/>
-        <v>45944</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.3">
@@ -17106,7 +17091,7 @@
       </c>
       <c r="D931" s="1">
         <f t="shared" si="58"/>
-        <v>45951</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.3">
@@ -17124,7 +17109,7 @@
       </c>
       <c r="D932" s="1">
         <f t="shared" si="58"/>
-        <v>45958</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.3">
@@ -17142,7 +17127,7 @@
       </c>
       <c r="D933" s="1">
         <f t="shared" si="58"/>
-        <v>45965</v>
+        <v>45868</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.3">
@@ -17160,7 +17145,7 @@
       </c>
       <c r="D934" s="1">
         <f t="shared" si="58"/>
-        <v>45972</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.3">
@@ -17178,7 +17163,7 @@
       </c>
       <c r="D935" s="1">
         <f t="shared" si="58"/>
-        <v>45979</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.3">
@@ -17196,7 +17181,7 @@
       </c>
       <c r="D936" s="1">
         <f t="shared" si="58"/>
-        <v>45986</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.3">
@@ -17214,7 +17199,7 @@
       </c>
       <c r="D937" s="1">
         <f t="shared" si="58"/>
-        <v>45993</v>
+        <v>45896</v>
       </c>
     </row>
   </sheetData>
